--- a/assets/excel/2021_1-3-2.xlsx
+++ b/assets/excel/2021_1-3-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBD5DC2-92FC-4705-A789-47A06F78BF7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C913348D-ABDF-441E-A8A8-22DA33A4AB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{D818978F-F71E-4D9C-8ED8-548A62D97831}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -157,6 +157,18 @@
   <si>
     <t>Staistische Region Braunschweig</t>
   </si>
+  <si>
+    <t>Niedersächsisches Ministerium für Soziales, Gesundheit und Gleichstellung (Hrsg.),</t>
+  </si>
+  <si>
+    <t>© Landesamt für Statistik Niedersachsen, Hannover 2021,                                                                          </t>
+  </si>
+  <si>
+    <t>Vervielfältigung und Verbreitung, auch auszugsweise, mit Quellenangabe gestattet.</t>
+  </si>
+  <si>
+    <t>https://www.integrationsmonitoring.niedersachsen.de</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +178,7 @@
     <numFmt numFmtId="164" formatCode="###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +232,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="NDSFrutiger 55 Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6"/>
+      <color theme="10"/>
+      <name val="NDSFrutiger 45 Light"/>
     </font>
   </fonts>
   <fills count="3">
@@ -405,10 +431,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -418,64 +445,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,12 +526,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -568,8 +538,69 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -883,10 +914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F34A677-107E-4B51-8415-9BFC70ED2BBD}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B1:M167"/>
+  <dimension ref="B1:M172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,5807 +954,5855 @@
       <c r="G4" s="1"/>
     </row>
     <row r="6" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="12" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21">
+      <c r="B9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="6">
         <v>1000</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="6">
         <v>1000</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="6">
         <v>1000</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="54">
         <v>1000</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="9">
         <v>2019</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="10">
         <v>250.75676999999999</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="12">
         <v>157.38541000000001</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="12">
         <v>62.764171830734625</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="12">
         <v>93.371359999999996</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="12">
         <v>37.235828169265375</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="12">
         <v>104.65288000000001</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="12">
         <v>41.444269999999996</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="12">
         <v>104.65961999999999</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="9">
         <v>2019</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="10">
         <v>101.77858000000001</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="12">
         <v>67.530210000000011</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="12">
         <v>66.350120035080081</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="12">
         <v>34.248370000000001</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="12">
         <v>33.649879964919926</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="12">
         <v>42.705980000000004</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="12">
         <v>17.242729999999998</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="12">
         <v>41.82987</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30">
+      <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="15">
         <v>2019</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="16">
         <v>352.53534999999999</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="18">
         <v>224.91561999999999</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="18">
         <v>63.799451601094759</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="18">
         <v>127.61972999999999</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="18">
         <v>36.200548398905241</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="18">
         <v>147.35885999999999</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="18">
         <v>58.686999999999998</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="18">
         <v>146.48948999999999</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36">
+      <c r="B13" s="19">
         <v>241</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="9">
         <v>2019</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="10">
         <v>346.35473999999999</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="12">
         <v>218.37788</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="12">
         <v>63.050351209283292</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="12">
         <v>127.97686</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="12">
         <v>36.949648790716708</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="12">
         <v>158.67304000000001</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="12">
         <v>39.53633</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="12">
         <v>148.14536999999999</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36">
+      <c r="B14" s="19">
         <v>241001</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="9">
         <v>2019</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="10">
         <v>196.98925</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="12">
         <v>123.49589</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="12">
         <v>62.691690028770608</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="12">
         <v>73.493359999999996</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="12">
         <v>37.308309971229392</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="12">
         <v>90.590879999999999</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="12">
         <v>19.560779999999998</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="12">
         <v>86.837589999999992</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="9">
         <v>2019</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="10">
         <v>149.36548999999999</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="12">
         <v>94.881990000000002</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="12">
         <v>63.52336808187755</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="12">
         <v>54.483499999999999</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="12">
         <v>36.476631918122457</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="12">
         <v>68.082160000000002</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="12">
         <v>19.975549999999998</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="12">
         <v>61.307780000000001</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="9">
         <v>2019</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="10">
         <v>114.29241999999999</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="12">
         <v>73.150179999999992</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="12">
         <v>64.002652144385436</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="12">
         <v>41.142240000000001</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="12">
         <v>35.997347855614578</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="12">
         <v>41.70749</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="12">
         <v>24.485259999999997</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="12">
         <v>48.099669999999996</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="9">
         <v>2019</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="10">
         <v>96.045490000000001</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="12">
         <v>61.534529999999997</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="12">
         <v>64.068109809216452</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="12">
         <v>34.510959999999997</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="12">
         <v>35.931890190783548</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="12">
         <v>43.663449999999997</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="12">
         <v>15.324530000000001</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="12">
         <v>37.057519999999997</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30">
+      <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="15">
         <v>2019</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="16">
         <v>556.69266000000005</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="18">
         <v>353.06259999999997</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="18">
         <v>63.421457721393338</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="18">
         <v>203.63005999999999</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="18">
         <v>36.578542278606655</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="18">
         <v>244.04398</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="18">
         <v>79.346119999999999</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="18">
         <v>233.30256</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="9">
         <v>2019</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="10">
         <v>160.80331000000001</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="12">
         <v>100.41445</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="12">
         <v>62.445511849227472</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="12">
         <v>60.388860000000001</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="12">
         <v>37.554488150772521</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="12">
         <v>67.591329999999999</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="12">
         <v>15.040430000000001</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="12">
         <v>78.171549999999996</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="9">
         <v>2019</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="10">
         <v>140.94448</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="12">
         <v>92.24860000000001</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="12">
         <v>65.450310647142771</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="12">
         <v>48.695889999999999</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="12">
         <v>34.549696447849534</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="12">
         <v>55.000870000000006</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="12">
         <v>20.627970000000001</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="12">
         <v>65.315640000000002</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="30">
+      <c r="B21" s="13">
         <v>3</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="15">
         <v>2019</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="16">
         <v>301.74778999999995</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="18">
         <v>192.66305</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="18">
         <v>63.849034321013598</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="18">
         <v>109.08474000000001</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="18">
         <v>36.150965678986424</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="18">
         <v>122.59219999999999</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="18">
         <v>35.668410000000002</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="18">
         <v>143.48719</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="9">
         <v>2019</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="10">
         <v>108.68543</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="12">
         <v>75.930530000000005</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="12">
         <v>69.862657763786743</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="12">
         <v>32.754889999999996</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="12">
         <v>30.137333035347975</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="12">
         <v>54.103120000000004</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="12">
         <v>14.89148</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="12">
         <v>39.690820000000002</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="9">
         <v>2019</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="10">
         <v>145.1859</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="12">
         <v>96.098699999999994</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="12">
         <v>66.190105237492077</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="12">
         <v>49.087209999999999</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="12">
         <v>33.809901650229115</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="12">
         <v>55.292360000000002</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="12">
         <v>29.418020000000002</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="12">
         <v>60.475519999999996</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="9">
         <v>2019</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="10">
         <v>285.94454999999999</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="12">
         <v>198.35168999999999</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="12">
         <v>69.36718675001849</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="12">
         <v>87.592860000000002</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="12">
         <v>30.63281324998151</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="12">
         <v>135.44642999999999</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="12">
         <v>55.509830000000001</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="12">
         <v>94.988289999999992</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="30">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="15">
         <v>2019</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="16">
         <v>539.81587999999999</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="18">
         <v>370.38092</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="18">
         <v>68.612453564722856</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="18">
         <v>169.43495999999999</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="18">
         <v>31.387546435277152</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="18">
         <v>244.84191000000001</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="18">
         <v>99.819339999999997</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="18">
         <v>195.15464</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30">
+      <c r="B26" s="13">
         <v>0</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="15">
         <v>2019</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="16">
         <v>1750.79168</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="18">
         <v>1141.0221799999999</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="18">
         <v>65.171784458102962</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="18">
         <v>609.76949999999999</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="18">
         <v>34.828215541897023</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="18">
         <v>758.83695</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="18">
         <v>273.52085999999997</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="18">
         <v>718.43386999999996</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="20">
         <v>2018</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="11">
         <v>240.96864000000002</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="11">
         <v>158.03348</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="11">
         <v>65.582591992053395</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="11">
         <v>82.93516000000001</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="11">
         <v>34.417408007946591</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="11">
         <v>735.98018999999999</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="11">
         <v>103.07277000000001</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="11">
         <v>44.397529999999996</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="20">
         <v>2018</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="11">
         <v>104.25395</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="11">
         <v>100.00000959196271</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="11">
         <v>70.458889999999997</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="11">
         <v>67.583904494745767</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="11">
         <v>33.795070000000003</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="11">
         <v>32.416105097216942</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="11">
         <v>479.79467999999997</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="11">
         <v>42.428899999999999</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="11">
         <v>19.416730000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="30">
+    <row r="29" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="22">
         <v>2018</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="17">
         <v>345.22259000000003</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="17">
         <v>100</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="17">
         <v>228.49235999999999</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="17">
         <v>66.186966501815533</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="17">
         <v>116.73022999999999</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="17">
         <v>33.81303349818446</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="17">
         <v>1215.7748700000002</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="17">
         <v>145.50167000000002</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="17">
         <v>63.814260000000004</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36">
+      <c r="B30" s="19">
         <v>241</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="20">
         <v>2018</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="11">
         <v>347.46348</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="11">
         <v>100.0000028780003</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="11">
         <v>224.86714000000001</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="11">
         <v>64.716769658785438</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="11">
         <v>122.59635</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="11">
         <v>35.283233219214864</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="11">
         <v>784.15094999999997</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="11">
         <v>159.72075000000001</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="11">
         <v>39.890329999999999</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36">
+      <c r="B31" s="19">
         <v>241001</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="20">
         <v>2018</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="11">
         <v>201.69757999999999</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="11">
         <v>100.0000049579177</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="11">
         <v>131.51767999999998</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="11">
         <v>65.205383227701589</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="11">
         <v>70.179910000000007</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="11">
         <v>34.7946217302161</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="11">
         <v>325.80624</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="11">
         <v>91.846050000000005</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="11">
         <v>20.654400000000003</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="20">
         <v>2018</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="11">
         <v>145.76589999999999</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="11">
         <v>100.00000000000003</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="11">
         <v>93.349460000000008</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="11">
         <v>64.040670691842209</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="11">
         <v>52.416440000000001</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="11">
         <v>35.959329308157812</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="11">
         <v>458.34471000000002</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="11">
         <v>67.87469999999999</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="11">
         <v>19.23593</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="20">
         <v>2018</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="11">
         <v>109.69589000000001</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="11">
         <v>75.900220000000004</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="11">
         <v>69.191489307393368</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="11">
         <v>33.795670000000001</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="11">
         <v>30.808510692606621</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="11">
         <v>375.69541999999996</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="11">
         <v>43.481569999999998</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="11">
         <v>22.718240000000002</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="20">
         <v>2018</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="11">
         <v>88.363050000000001</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="11">
         <v>100</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="11">
         <v>56.835190000000004</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="11">
         <v>64.320086280407935</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="11">
         <v>31.52786</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="11">
         <v>35.679913719592072</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="11">
         <v>395.22775000000001</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="11">
         <v>38.967309999999998</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="11">
         <v>14.056089999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="30">
+    <row r="35" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="13">
         <v>2</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="22">
         <v>2018</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="17">
         <v>545.52242000000001</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="17">
         <v>100</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="17">
         <v>357.60253999999998</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="17">
         <v>65.552308555897667</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="17">
         <v>187.91988000000001</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="17">
         <v>34.447691444102333</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="17">
         <v>1555.0741200000002</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="17">
         <v>242.16964000000002</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="17">
         <v>76.664649999999995</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="20">
         <v>2018</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="11">
         <v>162.11319</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="11">
         <v>102.46619</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="11">
         <v>63.206571902014872</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="11">
         <v>59.646999999999998</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="11">
         <v>36.793428097985114</v>
       </c>
-      <c r="K36" s="28">
+      <c r="K36" s="11">
         <v>752.57431000000008</v>
       </c>
-      <c r="L36" s="28">
+      <c r="L36" s="11">
         <v>65.021280000000004</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="11">
         <v>19.552619999999997</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="20">
         <v>2018</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="11">
         <v>132.56028000000001</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="11">
         <v>99.999992456262163</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="11">
         <v>87.137280000000004</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="11">
         <v>65.734079620230133</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="11">
         <v>45.422989999999999</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="11">
         <v>34.265912836032022</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="11">
         <v>624.19130000000007</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37" s="11">
         <v>56.90699</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="11">
         <v>18.322279999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="30">
+    <row r="38" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="13">
         <v>3</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="22">
         <v>2018</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="17">
         <v>294.67346000000003</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="17">
         <v>189.60346999999999</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="17">
         <v>64.343585608286531</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="17">
         <v>105.06999</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="17">
         <v>35.656414391713454</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="17">
         <v>1376.7656100000002</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="17">
         <v>121.92827</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="17">
         <v>37.874900000000004</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="36"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="20">
         <v>2018</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="11">
         <v>113.85846000000001</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="11">
         <v>99.999999999999972</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="11">
         <v>76.072119999999998</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="11">
         <v>66.812883293872048</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="11">
         <v>37.786339999999996</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="11">
         <v>33.187116706127931</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="11">
         <v>608.61858999999993</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="11">
         <v>54.569319999999998</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="11">
         <v>15.27867</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="20">
         <v>2018</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="11">
         <v>140.72148000000001</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="11">
         <v>99.999992893764329</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="11">
         <v>93.033729999999991</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="11">
         <v>66.111961016896629</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="11">
         <v>47.687739999999998</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="11">
         <v>33.888031876867693</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="11">
         <v>521.65695000000005</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L40" s="11">
         <v>51.998440000000002</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="11">
         <v>30.461880000000001</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="20">
         <v>2018</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="11">
         <v>286.10808000000003</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="11">
         <v>99.999996504817318</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="11">
         <v>201.03832999999997</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="11">
         <v>70.266568493976109</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="11">
         <v>85.06974000000001</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="11">
         <v>29.733428010841216</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="11">
         <v>819.52831999999989</v>
       </c>
-      <c r="L41" s="28">
+      <c r="L41" s="11">
         <v>134.04888</v>
       </c>
-      <c r="M41" s="28">
+      <c r="M41" s="11">
         <v>58.97766</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="30">
+    <row r="42" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="13">
         <v>4</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="22">
         <v>2018</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="17">
         <v>540.68800999999996</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="17">
         <v>100.00000184949542</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="17">
         <v>370.14418999999998</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="17">
         <v>68.457998541524901</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="17">
         <v>170.54382999999999</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="17">
         <v>31.542003307970525</v>
       </c>
-      <c r="K42" s="34">
+      <c r="K42" s="17">
         <v>1949.8038600000002</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="17">
         <v>240.61664000000002</v>
       </c>
-      <c r="M42" s="34">
+      <c r="M42" s="17">
         <v>104.71821000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="30">
+    <row r="43" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="13">
         <v>0</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="22">
         <v>2018</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="17">
         <v>1726.1064899999999</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="17">
         <v>1145.84256</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="17">
         <v>66.383074661865166</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="17">
         <v>580.26393000000007</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="17">
         <v>33.616925338134848</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="17">
         <v>6097.4184500000001</v>
       </c>
-      <c r="L43" s="34">
+      <c r="L43" s="17">
         <v>750.21622000000002</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="17">
         <v>283.07202000000001</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="20">
         <v>2017</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="11">
         <v>225.74770999999998</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="11">
         <v>155.35310999999999</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="11">
         <v>68.817136616801122</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="11">
         <v>70.394600000000011</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="11">
         <v>31.182863383198889</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="11">
         <v>91.837699999999998</v>
       </c>
-      <c r="L44" s="28">
+      <c r="L44" s="11">
         <v>53.406940000000006</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M44" s="11">
         <v>80.503070000000008</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="20">
         <v>2017</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="11">
         <v>104.77552</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="11">
         <v>100</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="11">
         <v>77.516720000000007</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="11">
         <v>73.983617547304945</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="11">
         <v>27.258800000000001</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="11">
         <v>26.016382452695058</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="11">
         <v>47.778370000000002</v>
       </c>
-      <c r="L45" s="28">
+      <c r="L45" s="11">
         <v>19.774549999999998</v>
       </c>
-      <c r="M45" s="28">
+      <c r="M45" s="11">
         <v>37.2226</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="30">
+    <row r="46" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="13">
         <v>1</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="22">
         <v>2017</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="17">
         <v>330.52322999999996</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="17">
         <v>100</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="17">
         <v>232.86982999999998</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="17">
         <v>70.454905696038367</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="17">
         <v>97.653399999999991</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="17">
         <v>29.545094303961633</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="17">
         <v>139.61607000000001</v>
       </c>
-      <c r="L46" s="34">
+      <c r="L46" s="17">
         <v>73.1815</v>
       </c>
-      <c r="M46" s="34">
+      <c r="M46" s="17">
         <v>117.72566999999999</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="36">
+      <c r="B47" s="19">
         <v>241</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="20">
         <v>2017</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="11">
         <v>334.01410999999996</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="11">
         <v>227.85482000000002</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="11">
         <v>68.217124120894184</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="11">
         <v>106.15929</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="11">
         <v>31.782875879105831</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="11">
         <v>148.27964</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="11">
         <v>50.850279999999998</v>
       </c>
-      <c r="M47" s="28">
+      <c r="M47" s="11">
         <v>134.88417999999999</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="36">
+      <c r="B48" s="19">
         <v>241001</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="20">
         <v>2017</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="11">
         <v>186.12621999999999</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="11">
         <v>100</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="11">
         <v>127.74057000000001</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="11">
         <v>68.631152558731387</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="11">
         <v>58.385649999999998</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="11">
         <v>31.36884744126862</v>
       </c>
-      <c r="K48" s="28">
+      <c r="K48" s="11">
         <v>83.649000000000001</v>
       </c>
-      <c r="L48" s="28">
+      <c r="L48" s="11">
         <v>24.357890000000001</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="11">
         <v>78.119320000000002</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="20">
         <v>2017</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="11">
         <v>147.88789000000003</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="11">
         <v>99.999993238121078</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="11">
         <v>100.11425</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="11">
         <v>67.696043266287703</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="11">
         <v>47.773629999999997</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="11">
         <v>32.303949971833383</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="11">
         <v>64.63064</v>
       </c>
-      <c r="L49" s="28">
+      <c r="L49" s="11">
         <v>26.49239</v>
       </c>
-      <c r="M49" s="28">
+      <c r="M49" s="11">
         <v>56.764859999999999</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="20">
         <v>2017</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="11">
         <v>109.20583999999999</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="11">
         <v>100</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="11">
         <v>77.35311999999999</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="11">
         <v>70.832402369690115</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="11">
         <v>31.852720000000001</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="11">
         <v>29.167597630309881</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="11">
         <v>41.24492</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="11">
         <v>24.545439999999999</v>
       </c>
-      <c r="M50" s="28">
+      <c r="M50" s="11">
         <v>43.415480000000002</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="25" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="20">
         <v>2017</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="11">
         <v>85.916960000000003</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="11">
         <v>100</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="11">
         <v>58.605760000000004</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="11">
         <v>68.2120968898341</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="11">
         <v>27.311199999999999</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="11">
         <v>31.787903110165907</v>
       </c>
-      <c r="K51" s="28">
+      <c r="K51" s="11">
         <v>40.841099999999997</v>
       </c>
-      <c r="L51" s="28">
+      <c r="L51" s="11">
         <v>15.752219999999999</v>
       </c>
-      <c r="M51" s="28">
+      <c r="M51" s="11">
         <v>29.323640000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="30">
+    <row r="52" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="13">
         <v>2</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="22">
         <v>2017</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="17">
         <v>529.13689999999997</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="17">
         <v>100.00000188987011</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="17">
         <v>363.81370000000004</v>
       </c>
-      <c r="H52" s="34">
+      <c r="H52" s="17">
         <v>68.756062939477488</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="17">
         <v>165.32320999999999</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="17">
         <v>31.243938950392614</v>
       </c>
-      <c r="K52" s="34">
+      <c r="K52" s="17">
         <v>230.36565999999999</v>
       </c>
-      <c r="L52" s="34">
+      <c r="L52" s="17">
         <v>91.147949999999994</v>
       </c>
-      <c r="M52" s="34">
+      <c r="M52" s="17">
         <v>207.6233</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
-      <c r="C53" s="25" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="20">
         <v>2017</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="11">
         <v>159.17363</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="11">
         <v>100</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="11">
         <v>107.24448</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="11">
         <v>67.375783287721717</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="11">
         <v>51.92915</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="11">
         <v>32.624216712278283</v>
       </c>
-      <c r="K53" s="28">
+      <c r="K53" s="11">
         <v>69.011800000000008</v>
       </c>
-      <c r="L53" s="28">
+      <c r="L53" s="11">
         <v>22.99023</v>
       </c>
-      <c r="M53" s="28">
+      <c r="M53" s="11">
         <v>67.171600000000012</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="20">
         <v>2017</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="11">
         <v>127.76089999999999</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="11">
         <v>100.00000782712083</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="11">
         <v>89.648320000000012</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="11">
         <v>70.168823168903799</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="11">
         <v>38.112589999999997</v>
       </c>
-      <c r="J54" s="28">
+      <c r="J54" s="11">
         <v>29.83118465821703</v>
       </c>
-      <c r="K54" s="28">
+      <c r="K54" s="11">
         <v>51.343699999999998</v>
       </c>
-      <c r="L54" s="28">
+      <c r="L54" s="11">
         <v>23.362020000000001</v>
       </c>
-      <c r="M54" s="28">
+      <c r="M54" s="11">
         <v>53.05518</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="30">
+    <row r="55" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="13">
         <v>3</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="22">
         <v>2017</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="17">
         <v>286.93453000000005</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="17">
         <v>99.999996514884415</v>
       </c>
-      <c r="G55" s="34">
+      <c r="G55" s="17">
         <v>196.89279000000002</v>
       </c>
-      <c r="H55" s="34">
+      <c r="H55" s="17">
         <v>68.619412937160263</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="17">
         <v>90.041730000000001</v>
       </c>
-      <c r="J55" s="34">
+      <c r="J55" s="17">
         <v>31.380583577724153</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="17">
         <v>120.35550000000001</v>
       </c>
-      <c r="L55" s="34">
+      <c r="L55" s="17">
         <v>46.352249999999998</v>
       </c>
-      <c r="M55" s="34">
+      <c r="M55" s="17">
         <v>120.22678000000001</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="36"/>
-      <c r="C56" s="25" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="20">
         <v>2017</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="11">
         <v>98.971509999999995</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="11">
         <v>100</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="11">
         <v>69.820800000000006</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="11">
         <v>70.546362281428259</v>
       </c>
-      <c r="I56" s="28">
+      <c r="I56" s="11">
         <v>29.15071</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J56" s="11">
         <v>29.453637718571741</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="11">
         <v>44.139019999999995</v>
       </c>
-      <c r="L56" s="28">
+      <c r="L56" s="11">
         <v>19.026209999999999</v>
       </c>
-      <c r="M56" s="28">
+      <c r="M56" s="11">
         <v>35.806280000000001</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="25" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="20">
         <v>2017</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="11">
         <v>139.13223000000002</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="11">
         <v>96.330269999999999</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="11">
         <v>69.236488195438241</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="11">
         <v>42.801960000000001</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="11">
         <v>30.763511804561745</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="11">
         <v>54.281179999999999</v>
       </c>
-      <c r="L57" s="28">
+      <c r="L57" s="11">
         <v>35.047419999999995</v>
       </c>
-      <c r="M57" s="28">
+      <c r="M57" s="11">
         <v>49.803629999999998</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="36"/>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="20">
         <v>2017</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="11">
         <v>271.25652000000002</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="11">
         <v>99.999996313452655</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="11">
         <v>197.12904999999998</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="11">
         <v>72.672557326916959</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="11">
         <v>74.127460000000013</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="11">
         <v>27.3274389865357</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="11">
         <v>123.5822</v>
       </c>
-      <c r="L58" s="28">
+      <c r="L58" s="11">
         <v>66.85266</v>
       </c>
-      <c r="M58" s="28">
+      <c r="M58" s="11">
         <v>80.821649999999991</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="30">
+    <row r="59" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="13">
         <v>4</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="22">
         <v>2017</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="17">
         <v>509.36025000000001</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G59" s="34">
+      <c r="G59" s="17">
         <v>363.28010999999998</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H59" s="17">
         <v>71.320859843303424</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="17">
         <v>146.08014</v>
       </c>
-      <c r="J59" s="34">
+      <c r="J59" s="17">
         <v>28.679140156696565</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K59" s="17">
         <v>222.00241</v>
       </c>
-      <c r="L59" s="34">
+      <c r="L59" s="17">
         <v>120.92628999999999</v>
       </c>
-      <c r="M59" s="34">
+      <c r="M59" s="17">
         <v>166.43154999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="30">
+    <row r="60" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="13">
         <v>0</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="39">
+      <c r="D60" s="22">
         <v>2017</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="17">
         <v>1655.9549199999999</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G60" s="34">
+      <c r="G60" s="17">
         <v>1156.85644</v>
       </c>
-      <c r="H60" s="34">
+      <c r="H60" s="17">
         <v>69.860382431183581</v>
       </c>
-      <c r="I60" s="34">
+      <c r="I60" s="17">
         <v>499.09848</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J60" s="17">
         <v>30.13961756881643</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="17">
         <v>712.33964000000003</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="17">
         <v>331.60798999999997</v>
       </c>
-      <c r="M60" s="34">
+      <c r="M60" s="17">
         <v>612.00729000000001</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="24"/>
-      <c r="C61" s="25" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="23">
         <v>2016</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="11">
         <v>215.38432</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="11">
         <v>99.999995357136484</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="11">
         <v>151.46924999999999</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="11">
         <v>70.325105374430223</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="11">
         <v>63.915059999999997</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="11">
         <v>29.674889982706258</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="11">
         <v>83.474770000000007</v>
       </c>
-      <c r="L61" s="28">
+      <c r="L61" s="11">
         <v>60.667859999999997</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M61" s="11">
         <v>71.241679999999988</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="24"/>
-      <c r="C62" s="25" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="24">
         <v>2016</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="11">
         <v>107.61360999999999</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="11">
         <v>100.00000929250493</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="11">
         <v>77.854849999999999</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="11">
         <v>72.346657639307892</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="11">
         <v>29.758770000000002</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="11">
         <v>27.653351653197028</v>
       </c>
-      <c r="K62" s="28">
+      <c r="K62" s="11">
         <v>47.60669</v>
       </c>
-      <c r="L62" s="28">
+      <c r="L62" s="11">
         <v>22.338639999999998</v>
       </c>
-      <c r="M62" s="28">
+      <c r="M62" s="11">
         <v>37.668279999999996</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="30">
+    <row r="63" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="13">
         <v>1</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D63" s="25">
         <v>2016</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="17">
         <v>322.99793</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="17">
         <v>100</v>
       </c>
-      <c r="G63" s="34">
+      <c r="G63" s="17">
         <v>229.32410000000002</v>
       </c>
-      <c r="H63" s="34">
+      <c r="H63" s="17">
         <v>70.998628381302638</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63" s="17">
         <v>93.673829999999995</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="17">
         <v>29.00137161869737</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="17">
         <v>131.08145999999999</v>
       </c>
-      <c r="L63" s="34">
+      <c r="L63" s="17">
         <v>83.006509999999992</v>
       </c>
-      <c r="M63" s="34">
+      <c r="M63" s="17">
         <v>108.90996000000001</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="36">
+      <c r="B64" s="19">
         <v>241</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="24">
         <v>2016</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="11">
         <v>317.75385</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="11">
         <v>100</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="11">
         <v>214.18256</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="11">
         <v>67.405181715343502</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="11">
         <v>103.57128999999999</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="11">
         <v>32.594818284656505</v>
       </c>
-      <c r="K64" s="28">
+      <c r="K64" s="11">
         <v>145.38464999999999</v>
       </c>
-      <c r="L64" s="28">
+      <c r="L64" s="11">
         <v>52.694230000000005</v>
       </c>
-      <c r="M64" s="28">
+      <c r="M64" s="11">
         <v>119.67497</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="36">
+      <c r="B65" s="19">
         <v>241001</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65" s="24">
         <v>2016</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="11">
         <v>176.58610000000002</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="11">
         <v>122.72095</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="11">
         <v>69.496381651783452</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="11">
         <v>53.86515</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="11">
         <v>30.503618348216534</v>
       </c>
-      <c r="K65" s="28">
+      <c r="K65" s="11">
         <v>88.874780000000001</v>
       </c>
-      <c r="L65" s="28">
+      <c r="L65" s="11">
         <v>26.729029999999998</v>
       </c>
-      <c r="M65" s="28">
+      <c r="M65" s="11">
         <v>60.982289999999999</v>
       </c>
     </row>
     <row r="66" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="24">
         <v>2016</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="11">
         <v>141.16775000000001</v>
       </c>
-      <c r="F66" s="28">
+      <c r="F66" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="11">
         <v>91.461610000000007</v>
       </c>
-      <c r="H66" s="28">
+      <c r="H66" s="11">
         <v>64.789309172952031</v>
       </c>
-      <c r="I66" s="28">
+      <c r="I66" s="11">
         <v>49.706139999999998</v>
       </c>
-      <c r="J66" s="28">
+      <c r="J66" s="11">
         <v>35.210690827047955</v>
       </c>
-      <c r="K66" s="28">
+      <c r="K66" s="11">
         <v>56.509869999999999</v>
       </c>
-      <c r="L66" s="28">
+      <c r="L66" s="11">
         <v>25.965199999999999</v>
       </c>
-      <c r="M66" s="28">
+      <c r="M66" s="11">
         <v>58.692689999999999</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="36"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="24">
         <v>2016</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="11">
         <v>88.76133999999999</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="11">
         <v>65.16301</v>
       </c>
-      <c r="H67" s="28">
+      <c r="H67" s="11">
         <v>73.413729445724911</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="11">
         <v>23.598330000000001</v>
       </c>
-      <c r="J67" s="28">
+      <c r="J67" s="11">
         <v>26.586270554275099</v>
       </c>
-      <c r="K67" s="28">
+      <c r="K67" s="11">
         <v>36.518949999999997</v>
       </c>
-      <c r="L67" s="28">
+      <c r="L67" s="11">
         <v>18.947310000000002</v>
       </c>
-      <c r="M67" s="28">
+      <c r="M67" s="11">
         <v>33.295079999999999</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="36"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="24">
         <v>2016</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="11">
         <v>76.68262</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="11">
         <v>100</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="11">
         <v>51.94218</v>
       </c>
-      <c r="H68" s="28">
+      <c r="H68" s="11">
         <v>67.736574467591225</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="11">
         <v>24.74044</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="11">
         <v>32.263425532408782</v>
       </c>
-      <c r="K68" s="28">
+      <c r="K68" s="11">
         <v>30.49755</v>
       </c>
-      <c r="L68" s="28">
+      <c r="L68" s="11">
         <v>17.111599999999999</v>
       </c>
-      <c r="M68" s="28">
+      <c r="M68" s="11">
         <v>29.07348</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="30">
+    <row r="69" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="13">
         <v>2</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="42">
+      <c r="D69" s="25">
         <v>2016</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="17">
         <v>483.19781</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G69" s="34">
+      <c r="G69" s="17">
         <v>331.28775000000002</v>
       </c>
-      <c r="H69" s="34">
+      <c r="H69" s="17">
         <v>68.561517280055568</v>
       </c>
-      <c r="I69" s="34">
+      <c r="I69" s="17">
         <v>151.91005999999999</v>
       </c>
-      <c r="J69" s="34">
+      <c r="J69" s="17">
         <v>31.438482719944442</v>
       </c>
-      <c r="K69" s="34">
+      <c r="K69" s="17">
         <v>212.40115</v>
       </c>
-      <c r="L69" s="34">
+      <c r="L69" s="17">
         <v>88.753129999999999</v>
       </c>
-      <c r="M69" s="34">
+      <c r="M69" s="17">
         <v>182.04353</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="36"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="24">
         <v>2016</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="11">
         <v>138.45964999999998</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="11">
         <v>100.00000000000003</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="11">
         <v>94.802240000000012</v>
       </c>
-      <c r="H70" s="28">
+      <c r="H70" s="11">
         <v>68.469218288505004</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="11">
         <v>43.657410000000006</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="11">
         <v>31.530781711495017</v>
       </c>
-      <c r="K70" s="28">
+      <c r="K70" s="11">
         <v>60.392720000000004</v>
       </c>
-      <c r="L70" s="28">
+      <c r="L70" s="11">
         <v>29.04664</v>
       </c>
-      <c r="M70" s="28">
+      <c r="M70" s="11">
         <v>49.020300000000006</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="36"/>
-      <c r="C71" s="25" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="24">
         <v>2016</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="11">
         <v>128.46983</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71" s="11">
         <v>100</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="11">
         <v>86.668329999999997</v>
       </c>
-      <c r="H71" s="28">
+      <c r="H71" s="11">
         <v>67.462010341260665</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="11">
         <v>41.801499999999997</v>
       </c>
-      <c r="J71" s="28">
+      <c r="J71" s="11">
         <v>32.537989658739328</v>
       </c>
-      <c r="K71" s="28">
+      <c r="K71" s="11">
         <v>50.024430000000002</v>
       </c>
-      <c r="L71" s="28">
+      <c r="L71" s="11">
         <v>25.495720000000002</v>
       </c>
-      <c r="M71" s="28">
+      <c r="M71" s="11">
         <v>52.949680000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="30">
+    <row r="72" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="13">
         <v>3</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="25">
         <v>2016</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="17">
         <v>266.92947999999996</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="17">
         <v>100.00000000000003</v>
       </c>
-      <c r="G72" s="34">
+      <c r="G72" s="17">
         <v>181.47057000000001</v>
       </c>
-      <c r="H72" s="34">
+      <c r="H72" s="17">
         <v>67.984461663807252</v>
       </c>
-      <c r="I72" s="34">
+      <c r="I72" s="17">
         <v>85.458910000000003</v>
       </c>
-      <c r="J72" s="34">
+      <c r="J72" s="17">
         <v>32.015538336192776</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="17">
         <v>110.41714</v>
       </c>
-      <c r="L72" s="34">
+      <c r="L72" s="17">
         <v>54.542360000000002</v>
       </c>
-      <c r="M72" s="34">
+      <c r="M72" s="17">
         <v>101.96997999999999</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="36"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="19"/>
+      <c r="C73" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73" s="24">
         <v>2016</v>
       </c>
-      <c r="E73" s="28">
+      <c r="E73" s="11">
         <v>80.189229999999995</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="11">
         <v>59.325650000000003</v>
       </c>
-      <c r="H73" s="28">
+      <c r="H73" s="11">
         <v>73.982067167872799</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="11">
         <v>20.863580000000002</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="11">
         <v>26.017932832127212</v>
       </c>
-      <c r="K73" s="28">
+      <c r="K73" s="11">
         <v>36.291230000000006</v>
       </c>
-      <c r="L73" s="28">
+      <c r="L73" s="11">
         <v>16.854009999999999</v>
       </c>
-      <c r="M73" s="28">
+      <c r="M73" s="11">
         <v>27.043990000000001</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="36"/>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="19"/>
+      <c r="C74" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="24">
         <v>2016</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74" s="11">
         <v>128.41272000000001</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="11">
         <v>100.00000778739052</v>
       </c>
-      <c r="G74" s="28">
+      <c r="G74" s="11">
         <v>91.160219999999995</v>
       </c>
-      <c r="H74" s="28">
+      <c r="H74" s="11">
         <v>70.990023418240796</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="11">
         <v>37.252510000000001</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="11">
         <v>29.00998436914972</v>
       </c>
-      <c r="K74" s="28">
+      <c r="K74" s="11">
         <v>49.114080000000001</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="11">
         <v>35.424150000000004</v>
       </c>
-      <c r="M74" s="28">
+      <c r="M74" s="11">
         <v>43.874499999999998</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="36"/>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="19"/>
+      <c r="C75" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="24">
         <v>2016</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="11">
         <v>275.44878000000006</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="11">
         <v>99.999999999999972</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="11">
         <v>198.23793000000001</v>
       </c>
-      <c r="H75" s="28">
+      <c r="H75" s="11">
         <v>71.969071709085057</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="11">
         <v>77.210850000000008</v>
       </c>
-      <c r="J75" s="28">
+      <c r="J75" s="11">
         <v>28.030928290914918</v>
       </c>
-      <c r="K75" s="28">
+      <c r="K75" s="11">
         <v>120.45811999999999</v>
       </c>
-      <c r="L75" s="28">
+      <c r="L75" s="11">
         <v>74.844929999999991</v>
       </c>
-      <c r="M75" s="28">
+      <c r="M75" s="11">
         <v>80.14573</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="30">
+    <row r="76" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="13">
         <v>4</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="25">
         <v>2016</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="26">
         <v>484.05072999999999</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G76" s="34">
+      <c r="G76" s="17">
         <v>348.72378999999995</v>
       </c>
-      <c r="H76" s="34">
+      <c r="H76" s="17">
         <v>72.042818735135455</v>
       </c>
-      <c r="I76" s="34">
+      <c r="I76" s="17">
         <v>135.32694000000001</v>
       </c>
-      <c r="J76" s="34">
+      <c r="J76" s="17">
         <v>27.957181264864534</v>
       </c>
-      <c r="K76" s="34">
+      <c r="K76" s="17">
         <v>205.86342999999999</v>
       </c>
-      <c r="L76" s="34">
+      <c r="L76" s="17">
         <v>127.12308999999999</v>
       </c>
-      <c r="M76" s="34">
+      <c r="M76" s="17">
         <v>151.06422000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="30">
+    <row r="77" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="13">
         <v>0</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="25">
         <v>2016</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="17">
         <v>1557.1759399999999</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="17">
         <v>100</v>
       </c>
-      <c r="G77" s="34">
+      <c r="G77" s="17">
         <v>1090.80621</v>
       </c>
-      <c r="H77" s="43">
+      <c r="H77" s="26">
         <v>70.050286674735034</v>
       </c>
-      <c r="I77" s="34">
+      <c r="I77" s="17">
         <v>466.36973</v>
       </c>
-      <c r="J77" s="34">
+      <c r="J77" s="17">
         <v>29.94971332526497</v>
       </c>
-      <c r="K77" s="34">
+      <c r="K77" s="17">
         <v>659.76318000000003</v>
       </c>
-      <c r="L77" s="34">
+      <c r="L77" s="17">
         <v>353.42508000000004</v>
       </c>
-      <c r="M77" s="34">
+      <c r="M77" s="17">
         <v>543.98768999999993</v>
       </c>
     </row>
     <row r="78" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="24"/>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="27">
         <v>2015</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="11">
         <v>212.90098</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="11">
         <v>100</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="11">
         <v>142.82708</v>
       </c>
-      <c r="H78" s="45">
+      <c r="H78" s="28">
         <v>67.086154323949089</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="11">
         <v>70.073899999999995</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="11">
         <v>32.913845676050904</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K78" s="11">
         <v>77.73017999999999</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L78" s="11">
         <v>53.45561</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M78" s="11">
         <v>81.715190000000007</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="24"/>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="44">
+      <c r="D79" s="27">
         <v>2015</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="11">
         <v>71.730809999999991</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="11">
         <v>100</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="11">
         <v>54.407519999999998</v>
       </c>
-      <c r="H79" s="45">
+      <c r="H79" s="28">
         <v>75.849582627046871</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="11">
         <v>17.32329</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="11">
         <v>24.150417372953132</v>
       </c>
-      <c r="K79" s="28">
+      <c r="K79" s="11">
         <v>30.073840000000001</v>
       </c>
-      <c r="L79" s="28">
+      <c r="L79" s="11">
         <v>19.32414</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M79" s="11">
         <v>22.332830000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="30">
+    <row r="80" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="13">
         <v>1</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="46">
+      <c r="D80" s="29">
         <v>2015</v>
       </c>
-      <c r="E80" s="34">
+      <c r="E80" s="17">
         <v>284.63178999999997</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="17">
         <v>99.999996486689014</v>
       </c>
-      <c r="G80" s="34">
+      <c r="G80" s="17">
         <v>197.23459</v>
       </c>
-      <c r="H80" s="43">
+      <c r="H80" s="26">
         <v>69.294645548903731</v>
       </c>
-      <c r="I80" s="34">
+      <c r="I80" s="17">
         <v>87.397190000000009</v>
       </c>
-      <c r="J80" s="34">
+      <c r="J80" s="17">
         <v>30.705350937785276</v>
       </c>
-      <c r="K80" s="34">
+      <c r="K80" s="17">
         <v>107.80403</v>
       </c>
-      <c r="L80" s="34">
+      <c r="L80" s="17">
         <v>72.779750000000007</v>
       </c>
-      <c r="M80" s="34">
+      <c r="M80" s="17">
         <v>104.04800999999999</v>
       </c>
     </row>
     <row r="81" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="36">
+      <c r="B81" s="19">
         <v>241</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="27">
         <v>2015</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81" s="11">
         <v>290.07814000000002</v>
       </c>
-      <c r="F81" s="28">
+      <c r="F81" s="11">
         <v>100</v>
       </c>
-      <c r="G81" s="28">
+      <c r="G81" s="11">
         <v>194.16579000000002</v>
       </c>
-      <c r="H81" s="45">
+      <c r="H81" s="28">
         <v>66.93568498474238</v>
       </c>
-      <c r="I81" s="28">
+      <c r="I81" s="11">
         <v>95.912350000000004</v>
       </c>
-      <c r="J81" s="28">
+      <c r="J81" s="11">
         <v>33.064315015257613</v>
       </c>
-      <c r="K81" s="28">
+      <c r="K81" s="11">
         <v>128.52501000000001</v>
       </c>
-      <c r="L81" s="28">
+      <c r="L81" s="11">
         <v>48.696309999999997</v>
       </c>
-      <c r="M81" s="28">
+      <c r="M81" s="11">
         <v>112.85682000000001</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="36">
+      <c r="B82" s="19">
         <v>241001</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="27">
         <v>2015</v>
       </c>
-      <c r="E82" s="28">
+      <c r="E82" s="11">
         <v>167.13982000000001</v>
       </c>
-      <c r="F82" s="28">
+      <c r="F82" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="11">
         <v>113.69331</v>
       </c>
-      <c r="H82" s="45">
+      <c r="H82" s="28">
         <v>68.022874501121265</v>
       </c>
-      <c r="I82" s="28">
+      <c r="I82" s="11">
         <v>53.446510000000004</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J82" s="11">
         <v>31.977125498878721</v>
       </c>
-      <c r="K82" s="28">
+      <c r="K82" s="11">
         <v>79.014710000000008</v>
       </c>
-      <c r="L82" s="28">
+      <c r="L82" s="11">
         <v>24.645409999999998</v>
       </c>
-      <c r="M82" s="28">
+      <c r="M82" s="11">
         <v>63.479699999999994</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="44">
+      <c r="D83" s="27">
         <v>2015</v>
       </c>
-      <c r="E83" s="28">
+      <c r="E83" s="11">
         <v>122.93831</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="11">
         <v>100</v>
       </c>
-      <c r="G83" s="28">
+      <c r="G83" s="11">
         <v>80.47247999999999</v>
       </c>
-      <c r="H83" s="45">
+      <c r="H83" s="28">
         <v>65.457610406389989</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="11">
         <v>42.465830000000004</v>
       </c>
-      <c r="J83" s="28">
+      <c r="J83" s="11">
         <v>34.542389593610004</v>
       </c>
-      <c r="K83" s="28">
+      <c r="K83" s="11">
         <v>49.510300000000001</v>
       </c>
-      <c r="L83" s="28">
+      <c r="L83" s="11">
         <v>24.050889999999999</v>
       </c>
-      <c r="M83" s="28">
+      <c r="M83" s="11">
         <v>49.377120000000005</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="36"/>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="19"/>
+      <c r="C84" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="44">
+      <c r="D84" s="27">
         <v>2015</v>
       </c>
-      <c r="E84" s="28">
+      <c r="E84" s="11">
         <v>74.927369999999996</v>
       </c>
-      <c r="F84" s="28">
+      <c r="F84" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G84" s="11">
         <v>53.476800000000004</v>
       </c>
-      <c r="H84" s="45">
+      <c r="H84" s="28">
         <v>71.371516176265104</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="11">
         <v>21.450569999999999</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="11">
         <v>28.628483823734907</v>
       </c>
-      <c r="K84" s="28">
+      <c r="K84" s="11">
         <v>30.73387</v>
       </c>
-      <c r="L84" s="28">
+      <c r="L84" s="11">
         <v>17.859369999999998</v>
       </c>
-      <c r="M84" s="28">
+      <c r="M84" s="11">
         <v>26.334130000000002</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="36"/>
-      <c r="C85" s="25" t="s">
+      <c r="B85" s="19"/>
+      <c r="C85" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="27">
         <v>2015</v>
       </c>
-      <c r="E85" s="28">
+      <c r="E85" s="11">
         <v>73.365359999999995</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F85" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G85" s="11">
         <v>47.952150000000003</v>
       </c>
-      <c r="H85" s="45">
+      <c r="H85" s="28">
         <v>65.360750632178465</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="11">
         <v>25.413209999999999</v>
       </c>
-      <c r="J85" s="28">
+      <c r="J85" s="11">
         <v>34.639249367821549</v>
       </c>
-      <c r="K85" s="28">
+      <c r="K85" s="11">
         <v>22.98583</v>
       </c>
-      <c r="L85" s="28">
+      <c r="L85" s="11">
         <v>20.421259999999997</v>
       </c>
-      <c r="M85" s="28">
+      <c r="M85" s="11">
         <v>29.958269999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="30">
+    <row r="86" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="13">
         <v>2</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="46">
+      <c r="D86" s="29">
         <v>2015</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="17">
         <v>438.37085999999999</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G86" s="34">
+      <c r="G86" s="17">
         <v>295.59474</v>
       </c>
-      <c r="H86" s="43">
+      <c r="H86" s="26">
         <v>67.430289504188295</v>
       </c>
-      <c r="I86" s="34">
+      <c r="I86" s="17">
         <v>142.77611999999999</v>
       </c>
-      <c r="J86" s="34">
+      <c r="J86" s="17">
         <v>32.569710495811691</v>
       </c>
-      <c r="K86" s="34">
+      <c r="K86" s="17">
         <v>182.24471</v>
       </c>
-      <c r="L86" s="34">
+      <c r="L86" s="17">
         <v>86.976939999999999</v>
       </c>
-      <c r="M86" s="34">
+      <c r="M86" s="17">
         <v>169.14920999999998</v>
       </c>
     </row>
     <row r="87" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="36"/>
-      <c r="C87" s="25" t="s">
+      <c r="B87" s="19"/>
+      <c r="C87" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="27">
         <v>2015</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="11">
         <v>113.36331</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F87" s="11">
         <v>100</v>
       </c>
-      <c r="G87" s="28">
+      <c r="G87" s="11">
         <v>76.937149999999988</v>
       </c>
-      <c r="H87" s="45">
+      <c r="H87" s="28">
         <v>67.867769563185817</v>
       </c>
-      <c r="I87" s="28">
+      <c r="I87" s="11">
         <v>36.426160000000003</v>
       </c>
-      <c r="J87" s="28">
+      <c r="J87" s="11">
         <v>32.132230436814176</v>
       </c>
-      <c r="K87" s="28">
+      <c r="K87" s="11">
         <v>43.585209999999996</v>
       </c>
-      <c r="L87" s="28">
+      <c r="L87" s="11">
         <v>23.913589999999999</v>
       </c>
-      <c r="M87" s="28">
+      <c r="M87" s="11">
         <v>45.864519999999999</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="36"/>
-      <c r="C88" s="25" t="s">
+      <c r="B88" s="19"/>
+      <c r="C88" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="27">
         <v>2015</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="11">
         <v>124.01586999999999</v>
       </c>
-      <c r="F88" s="28">
+      <c r="F88" s="11">
         <v>100.00000806348413</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G88" s="11">
         <v>82.912259999999989</v>
       </c>
-      <c r="H88" s="45">
+      <c r="H88" s="28">
         <v>66.856169295107151</v>
       </c>
-      <c r="I88" s="28">
+      <c r="I88" s="11">
         <v>41.103619999999999</v>
       </c>
-      <c r="J88" s="28">
+      <c r="J88" s="11">
         <v>33.14383876837698</v>
       </c>
-      <c r="K88" s="28">
+      <c r="K88" s="11">
         <v>41.890660000000004</v>
       </c>
-      <c r="L88" s="28">
+      <c r="L88" s="11">
         <v>24.66742</v>
       </c>
-      <c r="M88" s="28">
+      <c r="M88" s="11">
         <v>57.457790000000003</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="30">
+    <row r="89" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="13">
         <v>3</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="46">
+      <c r="D89" s="29">
         <v>2015</v>
       </c>
-      <c r="E89" s="34">
+      <c r="E89" s="17">
         <v>237.37918999999999</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F89" s="17">
         <v>100</v>
       </c>
-      <c r="G89" s="34">
+      <c r="G89" s="17">
         <v>159.84941000000001</v>
       </c>
-      <c r="H89" s="43">
+      <c r="H89" s="26">
         <v>67.339268450616927</v>
       </c>
-      <c r="I89" s="34">
+      <c r="I89" s="17">
         <v>77.529780000000002</v>
       </c>
-      <c r="J89" s="34">
+      <c r="J89" s="17">
         <v>32.66073154938308</v>
       </c>
-      <c r="K89" s="34">
+      <c r="K89" s="17">
         <v>85.47587</v>
       </c>
-      <c r="L89" s="34">
+      <c r="L89" s="17">
         <v>48.581000000000003</v>
       </c>
-      <c r="M89" s="34">
+      <c r="M89" s="17">
         <v>103.32231</v>
       </c>
     </row>
     <row r="90" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="36"/>
-      <c r="C90" s="25" t="s">
+      <c r="B90" s="19"/>
+      <c r="C90" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="44">
+      <c r="D90" s="27">
         <v>2015</v>
       </c>
-      <c r="E90" s="28">
+      <c r="E90" s="11">
         <v>88.813969999999998</v>
       </c>
-      <c r="F90" s="28">
+      <c r="F90" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G90" s="28">
+      <c r="G90" s="11">
         <v>66.122880000000009</v>
       </c>
-      <c r="H90" s="45">
+      <c r="H90" s="28">
         <v>74.450990086356924</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="11">
         <v>22.691089999999999</v>
       </c>
-      <c r="J90" s="28">
+      <c r="J90" s="11">
         <v>25.54900991364309</v>
       </c>
-      <c r="K90" s="28">
+      <c r="K90" s="11">
         <v>41.07761</v>
       </c>
-      <c r="L90" s="28">
+      <c r="L90" s="11">
         <v>16.567029999999999</v>
       </c>
-      <c r="M90" s="28">
+      <c r="M90" s="11">
         <v>31.169330000000002</v>
       </c>
     </row>
     <row r="91" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="36"/>
-      <c r="C91" s="25" t="s">
+      <c r="B91" s="19"/>
+      <c r="C91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="44">
+      <c r="D91" s="27">
         <v>2015</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="11">
         <v>121.53163000000001</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="11">
         <v>100.00000822831061</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="11">
         <v>83.190490000000011</v>
       </c>
-      <c r="H91" s="45">
+      <c r="H91" s="28">
         <v>68.451719112135663</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="11">
         <v>38.341149999999999</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="11">
         <v>31.548289116174939</v>
       </c>
-      <c r="K91" s="28">
+      <c r="K91" s="11">
         <v>37.899900000000002</v>
       </c>
-      <c r="L91" s="28">
+      <c r="L91" s="11">
         <v>38.351419999999997</v>
       </c>
-      <c r="M91" s="28">
+      <c r="M91" s="11">
         <v>45.28031</v>
       </c>
     </row>
     <row r="92" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="36"/>
-      <c r="C92" s="25" t="s">
+      <c r="B92" s="19"/>
+      <c r="C92" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D92" s="27">
         <v>2015</v>
       </c>
-      <c r="E92" s="28">
+      <c r="E92" s="11">
         <v>229.47226999999998</v>
       </c>
-      <c r="F92" s="28">
+      <c r="F92" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G92" s="28">
+      <c r="G92" s="11">
         <v>164.19414</v>
       </c>
-      <c r="H92" s="45">
+      <c r="H92" s="28">
         <v>71.552933171402373</v>
       </c>
-      <c r="I92" s="28">
+      <c r="I92" s="11">
         <v>65.278130000000004</v>
       </c>
-      <c r="J92" s="28">
+      <c r="J92" s="11">
         <v>28.447066828597638</v>
       </c>
-      <c r="K92" s="28">
+      <c r="K92" s="11">
         <v>89.283289999999994</v>
       </c>
-      <c r="L92" s="28">
+      <c r="L92" s="11">
         <v>61.350259999999999</v>
       </c>
-      <c r="M92" s="28">
+      <c r="M92" s="11">
         <v>78.838719999999995</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="30">
+    <row r="93" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="13">
         <v>4</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="46">
+      <c r="D93" s="29">
         <v>2015</v>
       </c>
-      <c r="E93" s="34">
+      <c r="E93" s="17">
         <v>439.81786999999997</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F93" s="17">
         <v>100.00000227366843</v>
       </c>
-      <c r="G93" s="34">
+      <c r="G93" s="17">
         <v>313.50751000000002</v>
       </c>
-      <c r="H93" s="43">
+      <c r="H93" s="26">
         <v>71.281212380024499</v>
       </c>
-      <c r="I93" s="34">
+      <c r="I93" s="17">
         <v>126.31036999999999</v>
       </c>
-      <c r="J93" s="34">
+      <c r="J93" s="17">
         <v>28.71878989364393</v>
       </c>
-      <c r="K93" s="34">
+      <c r="K93" s="17">
         <v>168.26079999999999</v>
       </c>
-      <c r="L93" s="34">
+      <c r="L93" s="17">
         <v>116.26871000000001</v>
       </c>
-      <c r="M93" s="34">
+      <c r="M93" s="17">
         <v>155.28836999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="30">
+    <row r="94" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="13">
         <v>0</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="46">
+      <c r="D94" s="29">
         <v>2015</v>
       </c>
-      <c r="E94" s="34">
+      <c r="E94" s="17">
         <v>1400.1997099999999</v>
       </c>
-      <c r="F94" s="34">
+      <c r="F94" s="17">
         <v>99.999999285816159</v>
       </c>
-      <c r="G94" s="34">
+      <c r="G94" s="17">
         <v>966.18624</v>
       </c>
-      <c r="H94" s="43">
+      <c r="H94" s="26">
         <v>69.003459513643236</v>
       </c>
-      <c r="I94" s="34">
+      <c r="I94" s="17">
         <v>434.01346000000001</v>
       </c>
-      <c r="J94" s="34">
+      <c r="J94" s="17">
         <v>30.99653977217293</v>
       </c>
-      <c r="K94" s="34">
+      <c r="K94" s="17">
         <v>543.78541000000007</v>
       </c>
-      <c r="L94" s="34">
+      <c r="L94" s="17">
         <v>324.60640000000001</v>
       </c>
-      <c r="M94" s="34">
+      <c r="M94" s="17">
         <v>531.80790000000002</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="24"/>
-      <c r="C95" s="25" t="s">
+      <c r="B95" s="7"/>
+      <c r="C95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="44">
+      <c r="D95" s="27">
         <v>2014</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="11">
         <v>207.14026000000001</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="11">
         <v>100</v>
       </c>
-      <c r="G95" s="28">
+      <c r="G95" s="11">
         <v>137.96116000000001</v>
       </c>
-      <c r="H95" s="45">
+      <c r="H95" s="28">
         <v>66.602774371336608</v>
       </c>
-      <c r="I95" s="28">
+      <c r="I95" s="11">
         <v>69.179100000000005</v>
       </c>
-      <c r="J95" s="28">
+      <c r="J95" s="11">
         <v>33.397225628663399</v>
       </c>
-      <c r="K95" s="28">
+      <c r="K95" s="11">
         <v>73.547979999999995</v>
       </c>
-      <c r="L95" s="28">
+      <c r="L95" s="11">
         <v>56.490259999999999</v>
       </c>
-      <c r="M95" s="28">
+      <c r="M95" s="11">
         <v>77.10202000000001</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="24"/>
-      <c r="C96" s="25" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="44">
+      <c r="D96" s="27">
         <v>2014</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E96" s="11">
         <v>66.664709999999999</v>
       </c>
-      <c r="F96" s="28">
+      <c r="F96" s="11">
         <v>100</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G96" s="11">
         <v>48.646209999999996</v>
       </c>
-      <c r="H96" s="45">
+      <c r="H96" s="28">
         <v>72.971456712254508</v>
       </c>
-      <c r="I96" s="28">
+      <c r="I96" s="11">
         <v>18.0185</v>
       </c>
-      <c r="J96" s="28">
+      <c r="J96" s="11">
         <v>27.028543287745492</v>
       </c>
-      <c r="K96" s="28">
+      <c r="K96" s="11">
         <v>25.118590000000001</v>
       </c>
-      <c r="L96" s="28">
+      <c r="L96" s="11">
         <v>18.359639999999999</v>
       </c>
-      <c r="M96" s="28">
+      <c r="M96" s="11">
         <v>23.18648</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="30">
+    <row r="97" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="13">
         <v>1</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="46">
+      <c r="D97" s="29">
         <v>2014</v>
       </c>
-      <c r="E97" s="34">
+      <c r="E97" s="17">
         <v>273.80496999999997</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F97" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G97" s="34">
+      <c r="G97" s="17">
         <v>186.60737</v>
       </c>
-      <c r="H97" s="43">
+      <c r="H97" s="26">
         <v>68.153390349342459</v>
       </c>
-      <c r="I97" s="34">
+      <c r="I97" s="17">
         <v>87.197600000000008</v>
       </c>
-      <c r="J97" s="34">
+      <c r="J97" s="17">
         <v>31.846609650657555</v>
       </c>
-      <c r="K97" s="34">
+      <c r="K97" s="17">
         <v>98.666570000000007</v>
       </c>
-      <c r="L97" s="34">
+      <c r="L97" s="17">
         <v>74.849899999999991</v>
       </c>
-      <c r="M97" s="34">
+      <c r="M97" s="17">
         <v>100.2885</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="36">
+      <c r="B98" s="19">
         <v>241</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="44">
+      <c r="D98" s="27">
         <v>2014</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="11">
         <v>270.84328999999997</v>
       </c>
-      <c r="F98" s="28">
+      <c r="F98" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G98" s="11">
         <v>182.98563000000001</v>
       </c>
-      <c r="H98" s="45">
+      <c r="H98" s="28">
         <v>67.561441156618656</v>
       </c>
-      <c r="I98" s="28">
+      <c r="I98" s="11">
         <v>87.85766000000001</v>
       </c>
-      <c r="J98" s="28">
+      <c r="J98" s="11">
         <v>32.438558843381358</v>
       </c>
-      <c r="K98" s="28">
+      <c r="K98" s="11">
         <v>111.18713000000001</v>
       </c>
-      <c r="L98" s="28">
+      <c r="L98" s="11">
         <v>50.554160000000003</v>
       </c>
-      <c r="M98" s="28">
+      <c r="M98" s="11">
         <v>109.102</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="36">
+      <c r="B99" s="19">
         <v>241001</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="44">
+      <c r="D99" s="27">
         <v>2014</v>
       </c>
-      <c r="E99" s="28">
+      <c r="E99" s="11">
         <v>154.4203</v>
       </c>
-      <c r="F99" s="28">
+      <c r="F99" s="11">
         <v>100.00000647583252</v>
       </c>
-      <c r="G99" s="28">
+      <c r="G99" s="11">
         <v>105.89119000000001</v>
       </c>
-      <c r="H99" s="45">
+      <c r="H99" s="28">
         <v>68.573361144875392</v>
       </c>
-      <c r="I99" s="28">
+      <c r="I99" s="11">
         <v>48.529120000000006</v>
       </c>
-      <c r="J99" s="28">
+      <c r="J99" s="11">
         <v>31.426645330957136</v>
       </c>
-      <c r="K99" s="28">
+      <c r="K99" s="11">
         <v>70.458730000000003</v>
       </c>
-      <c r="L99" s="28">
+      <c r="L99" s="11">
         <v>24.521669999999997</v>
       </c>
-      <c r="M99" s="28">
+      <c r="M99" s="11">
         <v>59.439900000000002</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="44">
+      <c r="D100" s="27">
         <v>2014</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="11">
         <v>116.42299</v>
       </c>
-      <c r="F100" s="28">
+      <c r="F100" s="11">
         <v>99.999991410631196</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G100" s="11">
         <v>77.094440000000006</v>
       </c>
-      <c r="H100" s="45">
+      <c r="H100" s="28">
         <v>66.219257897430751</v>
       </c>
-      <c r="I100" s="28">
+      <c r="I100" s="11">
         <v>39.328540000000004</v>
       </c>
-      <c r="J100" s="28">
+      <c r="J100" s="11">
         <v>33.780733513200445</v>
       </c>
-      <c r="K100" s="28">
+      <c r="K100" s="11">
         <v>40.728389999999997</v>
       </c>
-      <c r="L100" s="28">
+      <c r="L100" s="11">
         <v>26.032499999999999</v>
       </c>
-      <c r="M100" s="28">
+      <c r="M100" s="11">
         <v>49.662099999999995</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="36"/>
-      <c r="C101" s="25" t="s">
+      <c r="B101" s="19"/>
+      <c r="C101" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D101" s="44">
+      <c r="D101" s="27">
         <v>2014</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="11">
         <v>78.455029999999994</v>
       </c>
-      <c r="F101" s="28">
+      <c r="F101" s="11">
         <v>100</v>
       </c>
-      <c r="G101" s="28">
+      <c r="G101" s="11">
         <v>55.405459999999998</v>
       </c>
-      <c r="H101" s="45">
+      <c r="H101" s="28">
         <v>70.620660013768401</v>
       </c>
-      <c r="I101" s="28">
+      <c r="I101" s="11">
         <v>23.049569999999999</v>
       </c>
-      <c r="J101" s="28">
+      <c r="J101" s="11">
         <v>29.379339986231606</v>
       </c>
-      <c r="K101" s="28">
+      <c r="K101" s="11">
         <v>33.550370000000001</v>
       </c>
-      <c r="L101" s="28">
+      <c r="L101" s="11">
         <v>18.691400000000002</v>
       </c>
-      <c r="M101" s="28">
+      <c r="M101" s="11">
         <v>26.213270000000001</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="36"/>
-      <c r="C102" s="25" t="s">
+      <c r="B102" s="19"/>
+      <c r="C102" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="44">
+      <c r="D102" s="27">
         <v>2014</v>
       </c>
-      <c r="E102" s="28">
+      <c r="E102" s="11">
         <v>76.302250000000001</v>
       </c>
-      <c r="F102" s="28">
+      <c r="F102" s="11">
         <v>99.999986894226566</v>
       </c>
-      <c r="G102" s="28">
+      <c r="G102" s="11">
         <v>50.70317</v>
       </c>
-      <c r="H102" s="45">
+      <c r="H102" s="28">
         <v>66.450425773814004</v>
       </c>
-      <c r="I102" s="28">
+      <c r="I102" s="11">
         <v>25.599070000000001</v>
       </c>
-      <c r="J102" s="28">
+      <c r="J102" s="11">
         <v>33.549561120412569</v>
       </c>
-      <c r="K102" s="28">
+      <c r="K102" s="11">
         <v>22.814029999999999</v>
       </c>
-      <c r="L102" s="28">
+      <c r="L102" s="11">
         <v>24.277619999999999</v>
       </c>
-      <c r="M102" s="28">
+      <c r="M102" s="11">
         <v>29.21059</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="30">
+    <row r="103" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="13">
         <v>2</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="46">
+      <c r="D103" s="29">
         <v>2014</v>
       </c>
-      <c r="E103" s="34">
+      <c r="E103" s="17">
         <v>425.60057</v>
       </c>
-      <c r="F103" s="34">
+      <c r="F103" s="17">
         <v>99.999997650379086</v>
       </c>
-      <c r="G103" s="34">
+      <c r="G103" s="17">
         <v>289.09426000000002</v>
       </c>
-      <c r="H103" s="43">
+      <c r="H103" s="26">
         <v>67.926191922158381</v>
       </c>
-      <c r="I103" s="34">
+      <c r="I103" s="17">
         <v>136.50629999999998</v>
       </c>
-      <c r="J103" s="34">
+      <c r="J103" s="17">
         <v>32.073805728220705</v>
       </c>
-      <c r="K103" s="34">
+      <c r="K103" s="17">
         <v>167.55152999999999</v>
       </c>
-      <c r="L103" s="34">
+      <c r="L103" s="17">
         <v>93.523179999999996</v>
       </c>
-      <c r="M103" s="34">
+      <c r="M103" s="17">
         <v>164.52585999999999</v>
       </c>
     </row>
     <row r="104" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="36"/>
-      <c r="C104" s="25" t="s">
+      <c r="B104" s="19"/>
+      <c r="C104" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="44">
+      <c r="D104" s="27">
         <v>2014</v>
       </c>
-      <c r="E104" s="28">
+      <c r="E104" s="11">
         <v>109.77345</v>
       </c>
-      <c r="F104" s="28">
+      <c r="F104" s="11">
         <v>100.00000910967088</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G104" s="11">
         <v>69.75891</v>
       </c>
-      <c r="H104" s="45">
+      <c r="H104" s="28">
         <v>63.548071049967007</v>
       </c>
-      <c r="I104" s="28">
+      <c r="I104" s="11">
         <v>40.01455</v>
       </c>
-      <c r="J104" s="28">
+      <c r="J104" s="11">
         <v>36.451938059703878</v>
       </c>
-      <c r="K104" s="28">
+      <c r="K104" s="11">
         <v>35.86365</v>
       </c>
-      <c r="L104" s="28">
+      <c r="L104" s="11">
         <v>24.657330000000002</v>
       </c>
-      <c r="M104" s="28">
+      <c r="M104" s="11">
         <v>49.252470000000002</v>
       </c>
     </row>
     <row r="105" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="36"/>
-      <c r="C105" s="25" t="s">
+      <c r="B105" s="19"/>
+      <c r="C105" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="44">
+      <c r="D105" s="27">
         <v>2014</v>
       </c>
-      <c r="E105" s="28">
+      <c r="E105" s="11">
         <v>119.32896000000001</v>
       </c>
-      <c r="F105" s="28">
+      <c r="F105" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G105" s="28">
+      <c r="G105" s="11">
         <v>76.390789999999996</v>
       </c>
-      <c r="H105" s="45">
+      <c r="H105" s="28">
         <v>64.016974588565915</v>
       </c>
-      <c r="I105" s="28">
+      <c r="I105" s="11">
         <v>42.93817</v>
       </c>
-      <c r="J105" s="28">
+      <c r="J105" s="11">
         <v>35.98302541143407</v>
       </c>
-      <c r="K105" s="28">
+      <c r="K105" s="11">
         <v>40.238169999999997</v>
       </c>
-      <c r="L105" s="28">
+      <c r="L105" s="11">
         <v>24.744509999999998</v>
       </c>
-      <c r="M105" s="28">
+      <c r="M105" s="11">
         <v>54.34628</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="30">
+    <row r="106" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="13">
         <v>3</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D106" s="46">
+      <c r="D106" s="29">
         <v>2014</v>
       </c>
-      <c r="E106" s="34">
+      <c r="E106" s="17">
         <v>229.10242000000002</v>
       </c>
-      <c r="F106" s="34">
+      <c r="F106" s="17">
         <v>100</v>
       </c>
-      <c r="G106" s="34">
+      <c r="G106" s="17">
         <v>146.14970000000002</v>
       </c>
-      <c r="H106" s="43">
+      <c r="H106" s="26">
         <v>63.792298658390436</v>
       </c>
-      <c r="I106" s="34">
+      <c r="I106" s="17">
         <v>82.952719999999999</v>
       </c>
-      <c r="J106" s="34">
+      <c r="J106" s="17">
         <v>36.207701341609571</v>
       </c>
-      <c r="K106" s="34">
+      <c r="K106" s="17">
         <v>76.101830000000007</v>
       </c>
-      <c r="L106" s="34">
+      <c r="L106" s="17">
         <v>49.40184</v>
       </c>
-      <c r="M106" s="34">
+      <c r="M106" s="17">
         <v>103.59875</v>
       </c>
     </row>
     <row r="107" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="36"/>
-      <c r="C107" s="25" t="s">
+      <c r="B107" s="19"/>
+      <c r="C107" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="44">
+      <c r="D107" s="27">
         <v>2014</v>
       </c>
-      <c r="E107" s="28">
+      <c r="E107" s="11">
         <v>73.842100000000002</v>
       </c>
-      <c r="F107" s="28">
+      <c r="F107" s="11">
         <v>100</v>
       </c>
-      <c r="G107" s="28">
+      <c r="G107" s="11">
         <v>53.723510000000005</v>
       </c>
-      <c r="H107" s="45">
+      <c r="H107" s="28">
         <v>72.754580381652204</v>
       </c>
-      <c r="I107" s="28">
+      <c r="I107" s="11">
         <v>20.118590000000001</v>
       </c>
-      <c r="J107" s="28">
+      <c r="J107" s="11">
         <v>27.2454196183478</v>
       </c>
-      <c r="K107" s="28">
+      <c r="K107" s="11">
         <v>30.258369999999999</v>
       </c>
-      <c r="L107" s="28">
+      <c r="L107" s="11">
         <v>15.60252</v>
       </c>
-      <c r="M107" s="28">
+      <c r="M107" s="11">
         <v>27.981210000000001</v>
       </c>
     </row>
     <row r="108" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="36"/>
-      <c r="C108" s="25" t="s">
+      <c r="B108" s="19"/>
+      <c r="C108" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D108" s="44">
+      <c r="D108" s="27">
         <v>2014</v>
       </c>
-      <c r="E108" s="28">
+      <c r="E108" s="11">
         <v>119.42345</v>
       </c>
-      <c r="F108" s="28">
+      <c r="F108" s="11">
         <v>100</v>
       </c>
-      <c r="G108" s="28">
+      <c r="G108" s="11">
         <v>81.054910000000007</v>
       </c>
-      <c r="H108" s="45">
+      <c r="H108" s="28">
         <v>67.871854313369781</v>
       </c>
-      <c r="I108" s="28">
+      <c r="I108" s="11">
         <v>38.368540000000003</v>
       </c>
-      <c r="J108" s="28">
+      <c r="J108" s="11">
         <v>32.128145686630219</v>
       </c>
-      <c r="K108" s="28">
+      <c r="K108" s="11">
         <v>34.241540000000001</v>
       </c>
-      <c r="L108" s="28">
+      <c r="L108" s="11">
         <v>40.416449999999998</v>
       </c>
-      <c r="M108" s="28">
+      <c r="M108" s="11">
         <v>44.765470000000001</v>
       </c>
     </row>
     <row r="109" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="36"/>
-      <c r="C109" s="25" t="s">
+      <c r="B109" s="19"/>
+      <c r="C109" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="44">
+      <c r="D109" s="27">
         <v>2014</v>
       </c>
-      <c r="E109" s="28">
+      <c r="E109" s="11">
         <v>233.73957999999999</v>
       </c>
-      <c r="F109" s="28">
+      <c r="F109" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G109" s="28">
+      <c r="G109" s="11">
         <v>164.10085000000001</v>
       </c>
-      <c r="H109" s="45">
+      <c r="H109" s="28">
         <v>70.206701834580187</v>
       </c>
-      <c r="I109" s="28">
+      <c r="I109" s="11">
         <v>69.638729999999995</v>
       </c>
-      <c r="J109" s="28">
+      <c r="J109" s="11">
         <v>29.793298165419824</v>
       </c>
-      <c r="K109" s="28">
+      <c r="K109" s="11">
         <v>84.00421</v>
       </c>
-      <c r="L109" s="28">
+      <c r="L109" s="11">
         <v>66.614429999999999</v>
       </c>
-      <c r="M109" s="28">
+      <c r="M109" s="11">
         <v>83.120949999999993</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="30">
+    <row r="110" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="13">
         <v>4</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D110" s="46">
+      <c r="D110" s="29">
         <v>2014</v>
       </c>
-      <c r="E110" s="34">
+      <c r="E110" s="17">
         <v>427.00513000000001</v>
       </c>
-      <c r="F110" s="34">
+      <c r="F110" s="17">
         <v>100.00000234189224</v>
       </c>
-      <c r="G110" s="34">
+      <c r="G110" s="17">
         <v>298.87927000000002</v>
       </c>
-      <c r="H110" s="43">
+      <c r="H110" s="26">
         <v>69.994304283885299</v>
       </c>
-      <c r="I110" s="34">
+      <c r="I110" s="17">
         <v>128.12586999999999</v>
       </c>
-      <c r="J110" s="34">
+      <c r="J110" s="17">
         <v>30.005698058006935</v>
       </c>
-      <c r="K110" s="34">
+      <c r="K110" s="17">
         <v>148.50411</v>
       </c>
-      <c r="L110" s="34">
+      <c r="L110" s="17">
         <v>122.63339999999999</v>
       </c>
-      <c r="M110" s="34">
+      <c r="M110" s="17">
         <v>155.86761999999999</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="30">
+    <row r="111" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="13">
         <v>0</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="46">
+      <c r="D111" s="29">
         <v>2014</v>
       </c>
-      <c r="E111" s="34">
+      <c r="E111" s="17">
         <v>1355.5130900000001</v>
       </c>
-      <c r="F111" s="34">
+      <c r="F111" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G111" s="34">
+      <c r="G111" s="17">
         <v>920.73059999999998</v>
       </c>
-      <c r="H111" s="43">
+      <c r="H111" s="26">
         <v>67.924877066292282</v>
       </c>
-      <c r="I111" s="34">
+      <c r="I111" s="17">
         <v>434.78249</v>
       </c>
-      <c r="J111" s="34">
+      <c r="J111" s="17">
         <v>32.075122933707704</v>
       </c>
-      <c r="K111" s="34">
+      <c r="K111" s="17">
         <v>490.82403000000005</v>
       </c>
-      <c r="L111" s="34">
+      <c r="L111" s="17">
         <v>340.40832</v>
       </c>
-      <c r="M111" s="34">
+      <c r="M111" s="17">
         <v>524.28072999999995</v>
       </c>
     </row>
     <row r="112" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="24"/>
-      <c r="C112" s="25" t="s">
+      <c r="B112" s="7"/>
+      <c r="C112" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="44">
+      <c r="D112" s="27">
         <v>2013</v>
       </c>
-      <c r="E112" s="28">
+      <c r="E112" s="11">
         <v>208.23497</v>
       </c>
-      <c r="F112" s="28">
+      <c r="F112" s="11">
         <v>100</v>
       </c>
-      <c r="G112" s="28">
+      <c r="G112" s="11">
         <v>136.08432000000002</v>
       </c>
-      <c r="H112" s="45">
+      <c r="H112" s="28">
         <v>65.351328837802797</v>
       </c>
-      <c r="I112" s="28">
+      <c r="I112" s="11">
         <v>72.150649999999999</v>
       </c>
-      <c r="J112" s="28">
+      <c r="J112" s="11">
         <v>34.648671162197203</v>
       </c>
-      <c r="K112" s="28">
+      <c r="K112" s="11">
         <v>64.691299999999998</v>
       </c>
-      <c r="L112" s="28">
+      <c r="L112" s="11">
         <v>60.760750000000002</v>
       </c>
-      <c r="M112" s="28">
+      <c r="M112" s="11">
         <v>82.782920000000004</v>
       </c>
     </row>
     <row r="113" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="24"/>
-      <c r="C113" s="25" t="s">
+      <c r="B113" s="7"/>
+      <c r="C113" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="44">
+      <c r="D113" s="27">
         <v>2013</v>
       </c>
-      <c r="E113" s="28">
+      <c r="E113" s="11">
         <v>70.379329999999996</v>
       </c>
-      <c r="F113" s="28">
+      <c r="F113" s="11">
         <v>99.999985791282754</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G113" s="11">
         <v>50.198250000000002</v>
       </c>
-      <c r="H113" s="45">
+      <c r="H113" s="28">
         <v>71.325274054186082</v>
       </c>
-      <c r="I113" s="28">
+      <c r="I113" s="11">
         <v>20.181069999999998</v>
       </c>
-      <c r="J113" s="28">
+      <c r="J113" s="11">
         <v>28.674711737096668</v>
       </c>
-      <c r="K113" s="28">
+      <c r="K113" s="11">
         <v>27.833860000000001</v>
       </c>
-      <c r="L113" s="28">
+      <c r="L113" s="11">
         <v>16.246010000000002</v>
       </c>
-      <c r="M113" s="28">
+      <c r="M113" s="11">
         <v>26.29946</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="30">
+    <row r="114" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="13">
         <v>1</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D114" s="46">
+      <c r="D114" s="29">
         <v>2013</v>
       </c>
-      <c r="E114" s="34">
+      <c r="E114" s="17">
         <v>278.61430000000001</v>
       </c>
-      <c r="F114" s="34">
+      <c r="F114" s="17">
         <v>100</v>
       </c>
-      <c r="G114" s="34">
+      <c r="G114" s="17">
         <v>186.28257000000002</v>
       </c>
-      <c r="H114" s="43">
+      <c r="H114" s="26">
         <v>66.860376513337613</v>
       </c>
-      <c r="I114" s="34">
+      <c r="I114" s="17">
         <v>92.331729999999993</v>
       </c>
-      <c r="J114" s="34">
+      <c r="J114" s="17">
         <v>33.139623486662387</v>
       </c>
-      <c r="K114" s="34">
+      <c r="K114" s="17">
         <v>92.52516</v>
       </c>
-      <c r="L114" s="34">
+      <c r="L114" s="17">
         <v>77.006749999999997</v>
       </c>
-      <c r="M114" s="34">
+      <c r="M114" s="17">
         <v>109.08238</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="36">
+      <c r="B115" s="19">
         <v>241</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="44">
+      <c r="D115" s="27">
         <v>2013</v>
       </c>
-      <c r="E115" s="28">
+      <c r="E115" s="11">
         <v>269.08636999999999</v>
       </c>
-      <c r="F115" s="28">
+      <c r="F115" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G115" s="11">
         <v>184.24635000000001</v>
       </c>
-      <c r="H115" s="45">
+      <c r="H115" s="28">
         <v>68.47108235173711</v>
       </c>
-      <c r="I115" s="28">
+      <c r="I115" s="11">
         <v>84.84002000000001</v>
       </c>
-      <c r="J115" s="28">
+      <c r="J115" s="11">
         <v>31.528917648262905</v>
       </c>
-      <c r="K115" s="28">
+      <c r="K115" s="11">
         <v>109.21388</v>
       </c>
-      <c r="L115" s="28">
+      <c r="L115" s="11">
         <v>54.647210000000001</v>
       </c>
-      <c r="M115" s="28">
+      <c r="M115" s="11">
         <v>105.22528</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="36">
+      <c r="B116" s="19">
         <v>241001</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="44">
+      <c r="D116" s="27">
         <v>2013</v>
       </c>
-      <c r="E116" s="28">
+      <c r="E116" s="11">
         <v>157.90522000000001</v>
       </c>
-      <c r="F116" s="28">
+      <c r="F116" s="11">
         <v>100.00000633291286</v>
       </c>
-      <c r="G116" s="28">
+      <c r="G116" s="11">
         <v>110.86064999999999</v>
       </c>
-      <c r="H116" s="45">
+      <c r="H116" s="28">
         <v>70.207083717688363</v>
       </c>
-      <c r="I116" s="28">
+      <c r="I116" s="11">
         <v>47.044580000000003</v>
       </c>
-      <c r="J116" s="28">
+      <c r="J116" s="11">
         <v>29.792922615224498</v>
       </c>
-      <c r="K116" s="28">
+      <c r="K116" s="11">
         <v>73.648110000000003</v>
       </c>
-      <c r="L116" s="28">
+      <c r="L116" s="11">
         <v>27.204560000000001</v>
       </c>
-      <c r="M116" s="28">
+      <c r="M116" s="11">
         <v>57.052550000000004</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="44">
+      <c r="D117" s="27">
         <v>2013</v>
       </c>
-      <c r="E117" s="28">
+      <c r="E117" s="11">
         <v>111.18114999999999</v>
       </c>
-      <c r="F117" s="28">
+      <c r="F117" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G117" s="28">
+      <c r="G117" s="11">
         <v>73.385710000000003</v>
       </c>
-      <c r="H117" s="45">
+      <c r="H117" s="28">
         <v>66.005532412643703</v>
       </c>
-      <c r="I117" s="28">
+      <c r="I117" s="11">
         <v>37.795439999999999</v>
       </c>
-      <c r="J117" s="28">
+      <c r="J117" s="11">
         <v>33.994467587356311</v>
       </c>
-      <c r="K117" s="28">
+      <c r="K117" s="11">
         <v>35.565769999999993</v>
       </c>
-      <c r="L117" s="28">
+      <c r="L117" s="11">
         <v>27.44265</v>
       </c>
-      <c r="M117" s="28">
+      <c r="M117" s="11">
         <v>48.172730000000001</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="36"/>
-      <c r="C118" s="25" t="s">
+      <c r="B118" s="19"/>
+      <c r="C118" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="44">
+      <c r="D118" s="27">
         <v>2013</v>
       </c>
-      <c r="E118" s="28">
+      <c r="E118" s="11">
         <v>83.267870000000002</v>
       </c>
-      <c r="F118" s="28">
+      <c r="F118" s="11">
         <v>100</v>
       </c>
-      <c r="G118" s="28">
+      <c r="G118" s="11">
         <v>54.900849999999998</v>
       </c>
-      <c r="H118" s="45">
+      <c r="H118" s="28">
         <v>65.932814181508419</v>
       </c>
-      <c r="I118" s="28">
+      <c r="I118" s="11">
         <v>28.36702</v>
       </c>
-      <c r="J118" s="28">
+      <c r="J118" s="11">
         <v>34.067185818491573</v>
       </c>
-      <c r="K118" s="28">
+      <c r="K118" s="11">
         <v>33.011580000000002</v>
       </c>
-      <c r="L118" s="28">
+      <c r="L118" s="11">
         <v>17.06203</v>
       </c>
-      <c r="M118" s="28">
+      <c r="M118" s="11">
         <v>33.19426</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="36"/>
-      <c r="C119" s="25" t="s">
+      <c r="B119" s="19"/>
+      <c r="C119" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D119" s="44">
+      <c r="D119" s="27">
         <v>2013</v>
       </c>
-      <c r="E119" s="28">
+      <c r="E119" s="11">
         <v>67.10860000000001</v>
       </c>
-      <c r="F119" s="28">
+      <c r="F119" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G119" s="28">
+      <c r="G119" s="11">
         <v>46.437050000000006</v>
       </c>
-      <c r="H119" s="45">
+      <c r="H119" s="28">
         <v>69.196868955692707</v>
       </c>
-      <c r="I119" s="28">
+      <c r="I119" s="11">
         <v>20.67155</v>
       </c>
-      <c r="J119" s="28">
+      <c r="J119" s="11">
         <v>30.803131044307282</v>
       </c>
-      <c r="K119" s="28">
+      <c r="K119" s="11">
         <v>17.243029999999997</v>
       </c>
-      <c r="L119" s="28">
+      <c r="L119" s="11">
         <v>21.40821</v>
       </c>
-      <c r="M119" s="28">
+      <c r="M119" s="11">
         <v>28.457349999999998</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="30">
+    <row r="120" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="13">
         <v>2</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="46">
+      <c r="D120" s="29">
         <v>2013</v>
       </c>
-      <c r="E120" s="34">
+      <c r="E120" s="17">
         <v>419.46284000000003</v>
       </c>
-      <c r="F120" s="34">
+      <c r="F120" s="17">
         <v>100</v>
       </c>
-      <c r="G120" s="34">
+      <c r="G120" s="17">
         <v>285.58425</v>
       </c>
-      <c r="H120" s="43">
+      <c r="H120" s="26">
         <v>68.083325331035283</v>
       </c>
-      <c r="I120" s="34">
+      <c r="I120" s="17">
         <v>133.87859</v>
       </c>
-      <c r="J120" s="34">
+      <c r="J120" s="17">
         <v>31.916674668964717</v>
       </c>
-      <c r="K120" s="34">
+      <c r="K120" s="17">
         <v>159.46850000000001</v>
       </c>
-      <c r="L120" s="34">
+      <c r="L120" s="17">
         <v>93.117460000000008</v>
       </c>
-      <c r="M120" s="34">
+      <c r="M120" s="17">
         <v>166.87689</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="36"/>
-      <c r="C121" s="25" t="s">
+      <c r="B121" s="19"/>
+      <c r="C121" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="44">
+      <c r="D121" s="27">
         <v>2013</v>
       </c>
-      <c r="E121" s="28">
+      <c r="E121" s="11">
         <v>101.57791999999999</v>
       </c>
-      <c r="F121" s="28">
+      <c r="F121" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G121" s="28">
+      <c r="G121" s="11">
         <v>66.830479999999994</v>
       </c>
-      <c r="H121" s="45">
+      <c r="H121" s="28">
         <v>65.792329671645177</v>
       </c>
-      <c r="I121" s="28">
+      <c r="I121" s="11">
         <v>34.747440000000005</v>
       </c>
-      <c r="J121" s="28">
+      <c r="J121" s="11">
         <v>34.207670328354837</v>
       </c>
-      <c r="K121" s="28">
+      <c r="K121" s="11">
         <v>34.618050000000004</v>
       </c>
-      <c r="L121" s="28">
+      <c r="L121" s="11">
         <v>21.372439999999997</v>
       </c>
-      <c r="M121" s="28">
+      <c r="M121" s="11">
         <v>45.587429999999998</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="36"/>
-      <c r="C122" s="25" t="s">
+      <c r="B122" s="19"/>
+      <c r="C122" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="44">
+      <c r="D122" s="27">
         <v>2013</v>
       </c>
-      <c r="E122" s="28">
+      <c r="E122" s="11">
         <v>119.46935999999999</v>
       </c>
-      <c r="F122" s="28">
+      <c r="F122" s="11">
         <v>100</v>
       </c>
-      <c r="G122" s="28">
+      <c r="G122" s="11">
         <v>76.255719999999997</v>
       </c>
-      <c r="H122" s="45">
+      <c r="H122" s="28">
         <v>63.828683772977435</v>
       </c>
-      <c r="I122" s="28">
+      <c r="I122" s="11">
         <v>43.213639999999998</v>
       </c>
-      <c r="J122" s="28">
+      <c r="J122" s="11">
         <v>36.171316227022558</v>
       </c>
-      <c r="K122" s="28">
+      <c r="K122" s="11">
         <v>36.858669999999996</v>
       </c>
-      <c r="L122" s="28">
+      <c r="L122" s="11">
         <v>29.52524</v>
       </c>
-      <c r="M122" s="28">
+      <c r="M122" s="11">
         <v>53.085449999999994</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="30">
+    <row r="123" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="13">
         <v>3</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D123" s="46">
+      <c r="D123" s="29">
         <v>2013</v>
       </c>
-      <c r="E123" s="34">
+      <c r="E123" s="17">
         <v>221.04729</v>
       </c>
-      <c r="F123" s="34">
+      <c r="F123" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G123" s="34">
+      <c r="G123" s="17">
         <v>143.08620000000002</v>
       </c>
-      <c r="H123" s="43">
+      <c r="H123" s="26">
         <v>64.731035607810455</v>
       </c>
-      <c r="I123" s="34">
+      <c r="I123" s="17">
         <v>77.961089999999999</v>
       </c>
-      <c r="J123" s="34">
+      <c r="J123" s="17">
         <v>35.268964392189559</v>
       </c>
-      <c r="K123" s="34">
+      <c r="K123" s="17">
         <v>71.47672</v>
       </c>
-      <c r="L123" s="34">
+      <c r="L123" s="17">
         <v>50.897680000000001</v>
       </c>
-      <c r="M123" s="34">
+      <c r="M123" s="17">
         <v>98.672889999999995</v>
       </c>
     </row>
     <row r="124" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="36"/>
-      <c r="C124" s="25" t="s">
+      <c r="B124" s="19"/>
+      <c r="C124" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="44">
+      <c r="D124" s="27">
         <v>2013</v>
       </c>
-      <c r="E124" s="28">
+      <c r="E124" s="11">
         <v>84.435220000000001</v>
       </c>
-      <c r="F124" s="28">
+      <c r="F124" s="11">
         <v>100.00001184339899</v>
       </c>
-      <c r="G124" s="28">
+      <c r="G124" s="11">
         <v>56.851980000000005</v>
       </c>
-      <c r="H124" s="45">
+      <c r="H124" s="28">
         <v>67.332068300408295</v>
       </c>
-      <c r="I124" s="28">
+      <c r="I124" s="11">
         <v>27.58325</v>
       </c>
-      <c r="J124" s="28">
+      <c r="J124" s="11">
         <v>32.667943542990706</v>
       </c>
-      <c r="K124" s="28">
+      <c r="K124" s="11">
         <v>33.571709999999996</v>
       </c>
-      <c r="L124" s="28">
+      <c r="L124" s="11">
         <v>15.735139999999999</v>
       </c>
-      <c r="M124" s="28">
+      <c r="M124" s="11">
         <v>35.12838</v>
       </c>
     </row>
     <row r="125" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="36"/>
-      <c r="C125" s="25" t="s">
+      <c r="B125" s="19"/>
+      <c r="C125" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="44">
+      <c r="D125" s="27">
         <v>2013</v>
       </c>
-      <c r="E125" s="28">
+      <c r="E125" s="11">
         <v>103.86769</v>
       </c>
-      <c r="F125" s="28">
+      <c r="F125" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G125" s="28">
+      <c r="G125" s="11">
         <v>74.785449999999997</v>
       </c>
-      <c r="H125" s="45">
+      <c r="H125" s="28">
         <v>72.000686642785652</v>
       </c>
-      <c r="I125" s="28">
+      <c r="I125" s="11">
         <v>29.082240000000002</v>
       </c>
-      <c r="J125" s="28">
+      <c r="J125" s="11">
         <v>27.999313357214362</v>
       </c>
-      <c r="K125" s="28">
+      <c r="K125" s="11">
         <v>27.228270000000002</v>
       </c>
-      <c r="L125" s="28">
+      <c r="L125" s="11">
         <v>41.397779999999997</v>
       </c>
-      <c r="M125" s="28">
+      <c r="M125" s="11">
         <v>35.241639999999997</v>
       </c>
     </row>
     <row r="126" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="36"/>
-      <c r="C126" s="25" t="s">
+      <c r="B126" s="19"/>
+      <c r="C126" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D126" s="44">
+      <c r="D126" s="27">
         <v>2013</v>
       </c>
-      <c r="E126" s="28">
+      <c r="E126" s="11">
         <v>238.14914000000002</v>
       </c>
-      <c r="F126" s="28">
+      <c r="F126" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G126" s="28">
+      <c r="G126" s="11">
         <v>164.06826000000001</v>
       </c>
-      <c r="H126" s="45">
+      <c r="H126" s="28">
         <v>68.893072635072301</v>
       </c>
-      <c r="I126" s="28">
+      <c r="I126" s="11">
         <v>74.080880000000008</v>
       </c>
-      <c r="J126" s="28">
+      <c r="J126" s="11">
         <v>31.10692736492771</v>
       </c>
-      <c r="K126" s="28">
+      <c r="K126" s="11">
         <v>81.55364999999999</v>
       </c>
-      <c r="L126" s="28">
+      <c r="L126" s="11">
         <v>71.450059999999993</v>
       </c>
-      <c r="M126" s="28">
+      <c r="M126" s="11">
         <v>85.145440000000008</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="30">
+    <row r="127" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="13">
         <v>4</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="46">
+      <c r="D127" s="29">
         <v>2013</v>
       </c>
-      <c r="E127" s="34">
+      <c r="E127" s="17">
         <v>426.45204999999999</v>
       </c>
-      <c r="F127" s="34">
+      <c r="F127" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G127" s="34">
+      <c r="G127" s="17">
         <v>295.70569</v>
       </c>
-      <c r="H127" s="43">
+      <c r="H127" s="26">
         <v>69.34090010823023</v>
       </c>
-      <c r="I127" s="34">
+      <c r="I127" s="17">
         <v>130.74636000000001</v>
       </c>
-      <c r="J127" s="34">
+      <c r="J127" s="17">
         <v>30.659099891769781</v>
       </c>
-      <c r="K127" s="34">
+      <c r="K127" s="17">
         <v>142.35362000000001</v>
       </c>
-      <c r="L127" s="34">
+      <c r="L127" s="17">
         <v>128.58297999999999</v>
       </c>
-      <c r="M127" s="34">
+      <c r="M127" s="17">
         <v>155.51545000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="30">
+    <row r="128" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="13">
         <v>0</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C128" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D128" s="46">
+      <c r="D128" s="29">
         <v>2013</v>
       </c>
-      <c r="E128" s="34">
+      <c r="E128" s="17">
         <v>1345.5764799999999</v>
       </c>
-      <c r="F128" s="34">
+      <c r="F128" s="17">
         <v>100</v>
       </c>
-      <c r="G128" s="34">
+      <c r="G128" s="17">
         <v>910.65872000000002</v>
       </c>
-      <c r="H128" s="43">
+      <c r="H128" s="26">
         <v>67.677960601689477</v>
       </c>
-      <c r="I128" s="34">
+      <c r="I128" s="17">
         <v>434.91775999999999</v>
       </c>
-      <c r="J128" s="34">
+      <c r="J128" s="17">
         <v>32.32203939831053</v>
       </c>
-      <c r="K128" s="34">
+      <c r="K128" s="17">
         <v>465.82400999999999</v>
       </c>
-      <c r="L128" s="34">
+      <c r="L128" s="17">
         <v>349.60485999999997</v>
       </c>
-      <c r="M128" s="34">
+      <c r="M128" s="17">
         <v>530.14760000000001</v>
       </c>
     </row>
     <row r="129" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="24"/>
-      <c r="C129" s="25" t="s">
+      <c r="B129" s="7"/>
+      <c r="C129" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="44">
+      <c r="D129" s="27">
         <v>2012</v>
       </c>
-      <c r="E129" s="28">
+      <c r="E129" s="11">
         <v>199.52020999999999</v>
       </c>
-      <c r="F129" s="28">
+      <c r="F129" s="11">
         <v>99.999994987976407</v>
       </c>
-      <c r="G129" s="28">
+      <c r="G129" s="11">
         <v>131.72268</v>
       </c>
-      <c r="H129" s="45">
+      <c r="H129" s="28">
         <v>66.019718002502103</v>
       </c>
-      <c r="I129" s="28">
+      <c r="I129" s="11">
         <v>67.797520000000006</v>
       </c>
-      <c r="J129" s="28">
+      <c r="J129" s="11">
         <v>33.980276985474305</v>
       </c>
-      <c r="K129" s="28">
+      <c r="K129" s="11">
         <v>63.162620000000004</v>
       </c>
-      <c r="L129" s="28">
+      <c r="L129" s="11">
         <v>59.114650000000005</v>
       </c>
-      <c r="M129" s="28">
+      <c r="M129" s="11">
         <v>77.242929999999987</v>
       </c>
     </row>
     <row r="130" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="24"/>
-      <c r="C130" s="25" t="s">
+      <c r="B130" s="7"/>
+      <c r="C130" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="44">
+      <c r="D130" s="27">
         <v>2012</v>
       </c>
-      <c r="E130" s="28">
+      <c r="E130" s="11">
         <v>66.600089999999994</v>
       </c>
-      <c r="F130" s="28">
+      <c r="F130" s="11">
         <v>100</v>
       </c>
-      <c r="G130" s="28">
+      <c r="G130" s="11">
         <v>45.372099999999996</v>
       </c>
-      <c r="H130" s="45">
+      <c r="H130" s="28">
         <v>68.126184213865173</v>
       </c>
-      <c r="I130" s="28">
+      <c r="I130" s="11">
         <v>21.227990000000002</v>
       </c>
-      <c r="J130" s="28">
+      <c r="J130" s="11">
         <v>31.873815786134831</v>
       </c>
-      <c r="K130" s="28">
+      <c r="K130" s="11">
         <v>25.784520000000001</v>
       </c>
-      <c r="L130" s="28">
+      <c r="L130" s="11">
         <v>13.661250000000001</v>
       </c>
-      <c r="M130" s="28">
+      <c r="M130" s="11">
         <v>27.154319999999998</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="30">
+    <row r="131" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="13">
         <v>1</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="46">
+      <c r="D131" s="29">
         <v>2012</v>
       </c>
-      <c r="E131" s="34">
+      <c r="E131" s="17">
         <v>266.12028999999995</v>
       </c>
-      <c r="F131" s="34">
+      <c r="F131" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G131" s="34">
+      <c r="G131" s="17">
         <v>177.09477999999999</v>
       </c>
-      <c r="H131" s="43">
+      <c r="H131" s="26">
         <v>66.5468912573333</v>
       </c>
-      <c r="I131" s="34">
+      <c r="I131" s="17">
         <v>89.025509999999997</v>
       </c>
-      <c r="J131" s="34">
+      <c r="J131" s="17">
         <v>33.453108742666714</v>
       </c>
-      <c r="K131" s="34">
+      <c r="K131" s="17">
         <v>88.947130000000001</v>
       </c>
-      <c r="L131" s="34">
+      <c r="L131" s="17">
         <v>72.775899999999993</v>
       </c>
-      <c r="M131" s="34">
+      <c r="M131" s="17">
         <v>104.39725999999999</v>
       </c>
     </row>
     <row r="132" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="36">
+      <c r="B132" s="19">
         <v>241</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="27">
         <v>2012</v>
       </c>
-      <c r="E132" s="28">
+      <c r="E132" s="11">
         <v>257.56459999999998</v>
       </c>
-      <c r="F132" s="28">
+      <c r="F132" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G132" s="28">
+      <c r="G132" s="11">
         <v>174.67026000000001</v>
       </c>
-      <c r="H132" s="45">
+      <c r="H132" s="28">
         <v>67.816097398477908</v>
       </c>
-      <c r="I132" s="28">
+      <c r="I132" s="11">
         <v>82.89434</v>
       </c>
-      <c r="J132" s="28">
+      <c r="J132" s="11">
         <v>32.183902601522107</v>
       </c>
-      <c r="K132" s="28">
+      <c r="K132" s="11">
         <v>101.11995</v>
       </c>
-      <c r="L132" s="28">
+      <c r="L132" s="11">
         <v>54.682110000000002</v>
       </c>
-      <c r="M132" s="28">
+      <c r="M132" s="11">
         <v>101.76253999999999</v>
       </c>
     </row>
     <row r="133" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="36">
+      <c r="B133" s="19">
         <v>241001</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D133" s="44">
+      <c r="D133" s="27">
         <v>2012</v>
       </c>
-      <c r="E133" s="28">
+      <c r="E133" s="11">
         <v>146.54057</v>
       </c>
-      <c r="F133" s="28">
+      <c r="F133" s="11">
         <v>100.0000068240488</v>
       </c>
-      <c r="G133" s="28">
+      <c r="G133" s="11">
         <v>103.01322999999999</v>
       </c>
-      <c r="H133" s="45">
+      <c r="H133" s="28">
         <v>70.296730796120144</v>
       </c>
-      <c r="I133" s="28">
+      <c r="I133" s="11">
         <v>43.527349999999998</v>
       </c>
-      <c r="J133" s="28">
+      <c r="J133" s="11">
         <v>29.703276027928649</v>
       </c>
-      <c r="K133" s="28">
+      <c r="K133" s="11">
         <v>64.807130000000001</v>
       </c>
-      <c r="L133" s="28">
+      <c r="L133" s="11">
         <v>28.246500000000001</v>
       </c>
-      <c r="M133" s="28">
+      <c r="M133" s="11">
         <v>53.486930000000001</v>
       </c>
     </row>
     <row r="134" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="36" t="s">
+      <c r="B134" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="44">
+      <c r="D134" s="27">
         <v>2012</v>
       </c>
-      <c r="E134" s="28">
+      <c r="E134" s="11">
         <v>111.02402000000001</v>
       </c>
-      <c r="F134" s="28">
+      <c r="F134" s="11">
         <v>99.999999999999972</v>
       </c>
-      <c r="G134" s="28">
+      <c r="G134" s="11">
         <v>71.657029999999992</v>
       </c>
-      <c r="H134" s="45">
+      <c r="H134" s="28">
         <v>64.541916244790968</v>
       </c>
-      <c r="I134" s="28">
+      <c r="I134" s="11">
         <v>39.366990000000001</v>
       </c>
-      <c r="J134" s="28">
+      <c r="J134" s="11">
         <v>35.45808375520901</v>
       </c>
-      <c r="K134" s="28">
+      <c r="K134" s="11">
         <v>36.312809999999999</v>
       </c>
-      <c r="L134" s="28">
+      <c r="L134" s="11">
         <v>26.43561</v>
       </c>
-      <c r="M134" s="28">
+      <c r="M134" s="11">
         <v>48.275599999999997</v>
       </c>
     </row>
     <row r="135" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="36"/>
-      <c r="C135" s="25" t="s">
+      <c r="B135" s="19"/>
+      <c r="C135" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="44">
+      <c r="D135" s="27">
         <v>2012</v>
       </c>
-      <c r="E135" s="28">
+      <c r="E135" s="11">
         <v>77.25739999999999</v>
       </c>
-      <c r="F135" s="28">
+      <c r="F135" s="11">
         <v>99.999987056256117</v>
       </c>
-      <c r="G135" s="28">
+      <c r="G135" s="11">
         <v>52.374720000000003</v>
       </c>
-      <c r="H135" s="45">
+      <c r="H135" s="28">
         <v>67.792496252786151</v>
       </c>
-      <c r="I135" s="28">
+      <c r="I135" s="11">
         <v>24.882669999999997</v>
       </c>
-      <c r="J135" s="28">
+      <c r="J135" s="11">
         <v>32.207490803469959</v>
       </c>
-      <c r="K135" s="28">
+      <c r="K135" s="11">
         <v>29.590580000000003</v>
       </c>
-      <c r="L135" s="28">
+      <c r="L135" s="11">
         <v>19.73611</v>
       </c>
-      <c r="M135" s="28">
+      <c r="M135" s="11">
         <v>27.930700000000002</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="36"/>
-      <c r="C136" s="25" t="s">
+      <c r="B136" s="19"/>
+      <c r="C136" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="44">
+      <c r="D136" s="27">
         <v>2012</v>
       </c>
-      <c r="E136" s="28">
+      <c r="E136" s="11">
         <v>67.990809999999996</v>
       </c>
-      <c r="F136" s="28">
+      <c r="F136" s="11">
         <v>99.999985292129921</v>
       </c>
-      <c r="G136" s="28">
+      <c r="G136" s="11">
         <v>48.872349999999997</v>
       </c>
-      <c r="H136" s="45">
+      <c r="H136" s="28">
         <v>71.880817422236916</v>
       </c>
-      <c r="I136" s="28">
+      <c r="I136" s="11">
         <v>19.118449999999999</v>
       </c>
-      <c r="J136" s="28">
+      <c r="J136" s="11">
         <v>28.119167869893001</v>
       </c>
-      <c r="K136" s="28">
+      <c r="K136" s="11">
         <v>23.73949</v>
       </c>
-      <c r="L136" s="28">
+      <c r="L136" s="11">
         <v>21.755569999999999</v>
       </c>
-      <c r="M136" s="28">
+      <c r="M136" s="11">
         <v>22.495750000000001</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="30">
+    <row r="137" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="13">
         <v>2</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D137" s="46">
+      <c r="D137" s="29">
         <v>2012</v>
       </c>
-      <c r="E137" s="34">
+      <c r="E137" s="17">
         <v>402.81279999999998</v>
       </c>
-      <c r="F137" s="34">
+      <c r="F137" s="17">
         <v>100</v>
       </c>
-      <c r="G137" s="34">
+      <c r="G137" s="17">
         <v>275.91732999999999</v>
       </c>
-      <c r="H137" s="43">
+      <c r="H137" s="26">
         <v>68.497656976143759</v>
       </c>
-      <c r="I137" s="34">
+      <c r="I137" s="17">
         <v>126.89547</v>
       </c>
-      <c r="J137" s="34">
+      <c r="J137" s="17">
         <v>31.502343023856245</v>
       </c>
-      <c r="K137" s="34">
+      <c r="K137" s="17">
         <v>154.45001999999999</v>
       </c>
-      <c r="L137" s="34">
+      <c r="L137" s="17">
         <v>96.173789999999997</v>
       </c>
-      <c r="M137" s="34">
+      <c r="M137" s="17">
         <v>152.18898000000002</v>
       </c>
     </row>
     <row r="138" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="36"/>
-      <c r="C138" s="25" t="s">
+      <c r="B138" s="19"/>
+      <c r="C138" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D138" s="44">
+      <c r="D138" s="27">
         <v>2012</v>
       </c>
-      <c r="E138" s="28">
+      <c r="E138" s="11">
         <v>103.1748</v>
       </c>
-      <c r="F138" s="28">
+      <c r="F138" s="11">
         <v>99.999990307710789</v>
       </c>
-      <c r="G138" s="28">
+      <c r="G138" s="11">
         <v>65.070769999999996</v>
       </c>
-      <c r="H138" s="45">
+      <c r="H138" s="28">
         <v>63.068472146299278</v>
       </c>
-      <c r="I138" s="28">
+      <c r="I138" s="11">
         <v>38.104019999999998</v>
       </c>
-      <c r="J138" s="28">
+      <c r="J138" s="11">
         <v>36.931518161411503</v>
       </c>
-      <c r="K138" s="28">
+      <c r="K138" s="11">
         <v>34.39217</v>
       </c>
-      <c r="L138" s="28">
+      <c r="L138" s="11">
         <v>21.071770000000001</v>
       </c>
-      <c r="M138" s="28">
+      <c r="M138" s="11">
         <v>47.710860000000004</v>
       </c>
     </row>
     <row r="139" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="36"/>
-      <c r="C139" s="25" t="s">
+      <c r="B139" s="19"/>
+      <c r="C139" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D139" s="44">
+      <c r="D139" s="27">
         <v>2012</v>
       </c>
-      <c r="E139" s="28">
+      <c r="E139" s="11">
         <v>102.95045</v>
       </c>
-      <c r="F139" s="28">
+      <c r="F139" s="11">
         <v>99.999999999999986</v>
       </c>
-      <c r="G139" s="28">
+      <c r="G139" s="11">
         <v>66.900809999999993</v>
       </c>
-      <c r="H139" s="45">
+      <c r="H139" s="28">
         <v>64.983504200321605</v>
       </c>
-      <c r="I139" s="28">
+      <c r="I139" s="11">
         <v>36.049639999999997</v>
       </c>
-      <c r="J139" s="28">
+      <c r="J139" s="11">
         <v>35.016495799678381</v>
       </c>
-      <c r="K139" s="28">
+      <c r="K139" s="11">
         <v>33.128589999999996</v>
       </c>
-      <c r="L139" s="28">
+      <c r="L139" s="11">
         <v>27.33277</v>
       </c>
-      <c r="M139" s="28">
+      <c r="M139" s="11">
         <v>42.489100000000001</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="30">
+    <row r="140" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="13">
         <v>3</v>
       </c>
-      <c r="C140" s="31" t="s">
+      <c r="C140" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="46">
+      <c r="D140" s="29">
         <v>2012</v>
       </c>
-      <c r="E140" s="34">
+      <c r="E140" s="17">
         <v>206.12524999999999</v>
       </c>
-      <c r="F140" s="34">
+      <c r="F140" s="17">
         <v>99.99999514858078</v>
       </c>
-      <c r="G140" s="34">
+      <c r="G140" s="17">
         <v>131.97157999999999</v>
       </c>
-      <c r="H140" s="43">
+      <c r="H140" s="26">
         <v>64.024945997639776</v>
       </c>
-      <c r="I140" s="34">
+      <c r="I140" s="17">
         <v>74.153660000000002</v>
       </c>
-      <c r="J140" s="34">
+      <c r="J140" s="17">
         <v>35.975049150940997</v>
       </c>
-      <c r="K140" s="34">
+      <c r="K140" s="17">
         <v>67.520759999999996</v>
       </c>
-      <c r="L140" s="34">
+      <c r="L140" s="17">
         <v>48.404530000000001</v>
       </c>
-      <c r="M140" s="34">
+      <c r="M140" s="17">
         <v>90.199960000000004</v>
       </c>
     </row>
     <row r="141" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="36"/>
-      <c r="C141" s="25" t="s">
+      <c r="B141" s="19"/>
+      <c r="C141" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D141" s="44">
+      <c r="D141" s="27">
         <v>2012</v>
       </c>
-      <c r="E141" s="28">
+      <c r="E141" s="11">
         <v>72.213610000000003</v>
       </c>
-      <c r="F141" s="28">
+      <c r="F141" s="11">
         <v>100</v>
       </c>
-      <c r="G141" s="28">
+      <c r="G141" s="11">
         <v>51.17071</v>
       </c>
-      <c r="H141" s="45">
+      <c r="H141" s="28">
         <v>70.860202114255188</v>
       </c>
-      <c r="I141" s="28">
+      <c r="I141" s="11">
         <v>21.042900000000003</v>
       </c>
-      <c r="J141" s="28">
+      <c r="J141" s="11">
         <v>29.139797885744812</v>
       </c>
-      <c r="K141" s="28">
+      <c r="K141" s="11">
         <v>26.8827</v>
       </c>
-      <c r="L141" s="28">
+      <c r="L141" s="11">
         <v>17.44425</v>
       </c>
-      <c r="M141" s="28">
+      <c r="M141" s="11">
         <v>27.886669999999999</v>
       </c>
     </row>
     <row r="142" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="36"/>
-      <c r="C142" s="25" t="s">
+      <c r="B142" s="19"/>
+      <c r="C142" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D142" s="44">
+      <c r="D142" s="27">
         <v>2012</v>
       </c>
-      <c r="E142" s="28">
+      <c r="E142" s="11">
         <v>111.65797999999999</v>
       </c>
-      <c r="F142" s="28">
+      <c r="F142" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G142" s="28">
+      <c r="G142" s="11">
         <v>77.528589999999994</v>
       </c>
-      <c r="H142" s="45">
+      <c r="H142" s="28">
         <v>69.433989402280076</v>
       </c>
-      <c r="I142" s="28">
+      <c r="I142" s="11">
         <v>34.129390000000001</v>
       </c>
-      <c r="J142" s="28">
+      <c r="J142" s="11">
         <v>30.566010597719934</v>
       </c>
-      <c r="K142" s="28">
+      <c r="K142" s="11">
         <v>28.501360000000002</v>
       </c>
-      <c r="L142" s="28">
+      <c r="L142" s="11">
         <v>43.008330000000001</v>
       </c>
-      <c r="M142" s="28">
+      <c r="M142" s="11">
         <v>40.148290000000003</v>
       </c>
     </row>
     <row r="143" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="36"/>
-      <c r="C143" s="25" t="s">
+      <c r="B143" s="19"/>
+      <c r="C143" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D143" s="44">
+      <c r="D143" s="27">
         <v>2012</v>
       </c>
-      <c r="E143" s="28">
+      <c r="E143" s="11">
         <v>239.63432999999998</v>
       </c>
-      <c r="F143" s="28">
+      <c r="F143" s="11">
         <v>100.00000000000001</v>
       </c>
-      <c r="G143" s="28">
+      <c r="G143" s="11">
         <v>166.63742000000002</v>
       </c>
-      <c r="H143" s="45">
+      <c r="H143" s="28">
         <v>69.53820848623819</v>
       </c>
-      <c r="I143" s="28">
+      <c r="I143" s="11">
         <v>72.99691</v>
       </c>
-      <c r="J143" s="28">
+      <c r="J143" s="11">
         <v>30.461791513761828</v>
       </c>
-      <c r="K143" s="28">
+      <c r="K143" s="11">
         <v>79.373500000000007</v>
       </c>
-      <c r="L143" s="28">
+      <c r="L143" s="11">
         <v>76.383240000000001</v>
       </c>
-      <c r="M143" s="28">
+      <c r="M143" s="11">
         <v>83.877600000000001</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="30">
+    <row r="144" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="13">
         <v>4</v>
       </c>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D144" s="46">
+      <c r="D144" s="29">
         <v>2012</v>
       </c>
-      <c r="E144" s="34">
+      <c r="E144" s="17">
         <v>423.50592</v>
       </c>
-      <c r="F144" s="34">
+      <c r="F144" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="G144" s="34">
+      <c r="G144" s="17">
         <v>295.33671999999996</v>
       </c>
-      <c r="H144" s="43">
+      <c r="H144" s="26">
         <v>69.736149142850223</v>
       </c>
-      <c r="I144" s="34">
+      <c r="I144" s="17">
         <v>128.16919999999999</v>
       </c>
-      <c r="J144" s="34">
+      <c r="J144" s="17">
         <v>30.263850857149759</v>
       </c>
-      <c r="K144" s="34">
+      <c r="K144" s="17">
         <v>134.75755999999998</v>
       </c>
-      <c r="L144" s="34">
+      <c r="L144" s="17">
         <v>136.83582000000001</v>
       </c>
-      <c r="M144" s="34">
+      <c r="M144" s="17">
         <v>151.91254999999998</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="30">
+    <row r="145" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="13">
         <v>0</v>
       </c>
-      <c r="C145" s="31" t="s">
+      <c r="C145" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="46">
+      <c r="D145" s="29">
         <v>2012</v>
       </c>
-      <c r="E145" s="34">
+      <c r="E145" s="17">
         <v>1298.5642600000001</v>
       </c>
-      <c r="F145" s="34">
+      <c r="F145" s="17">
         <v>100</v>
       </c>
-      <c r="G145" s="34">
+      <c r="G145" s="17">
         <v>880.32042000000001</v>
       </c>
-      <c r="H145" s="43">
+      <c r="H145" s="26">
         <v>67.791825719891591</v>
       </c>
-      <c r="I145" s="34">
+      <c r="I145" s="17">
         <v>418.24384000000003</v>
       </c>
-      <c r="J145" s="34">
+      <c r="J145" s="17">
         <v>32.208174280108402</v>
       </c>
-      <c r="K145" s="34">
+      <c r="K145" s="17">
         <v>445.67546999999996</v>
       </c>
-      <c r="L145" s="34">
+      <c r="L145" s="17">
         <v>354.19003999999995</v>
       </c>
-      <c r="M145" s="34">
+      <c r="M145" s="17">
         <v>498.69875000000002</v>
       </c>
     </row>
     <row r="146" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="24"/>
-      <c r="C146" s="25" t="s">
+      <c r="B146" s="7"/>
+      <c r="C146" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="44">
+      <c r="D146" s="27">
         <v>2011</v>
       </c>
-      <c r="E146" s="28">
+      <c r="E146" s="11">
         <v>184.69762</v>
       </c>
-      <c r="F146" s="28">
+      <c r="F146" s="11">
         <v>100</v>
       </c>
-      <c r="G146" s="28">
+      <c r="G146" s="11">
         <v>122.08877000000001</v>
       </c>
-      <c r="H146" s="45">
+      <c r="H146" s="28">
         <v>66.101972510528299</v>
       </c>
-      <c r="I146" s="28">
+      <c r="I146" s="11">
         <v>62.608849999999997</v>
       </c>
-      <c r="J146" s="28">
+      <c r="J146" s="11">
         <v>33.898027489471708</v>
       </c>
-      <c r="K146" s="28">
+      <c r="K146" s="11">
         <v>56.25741</v>
       </c>
-      <c r="L146" s="28">
+      <c r="L146" s="11">
         <v>61.164550000000006</v>
       </c>
-      <c r="M146" s="28">
+      <c r="M146" s="11">
         <v>67.275660000000002</v>
       </c>
     </row>
     <row r="147" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="24"/>
-      <c r="C147" s="25" t="s">
+      <c r="B147" s="7"/>
+      <c r="C147" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D147" s="44">
+      <c r="D147" s="27">
         <v>2011</v>
       </c>
-      <c r="E147" s="28">
+      <c r="E147" s="11">
         <v>72.258250000000004</v>
       </c>
-      <c r="F147" s="28">
+      <c r="F147" s="11">
         <v>100</v>
       </c>
-      <c r="G147" s="28">
+      <c r="G147" s="11">
         <v>49.724539999999998</v>
       </c>
-      <c r="H147" s="45">
+      <c r="H147" s="28">
         <v>68.815034961405786</v>
       </c>
-      <c r="I147" s="28">
+      <c r="I147" s="11">
         <v>22.533709999999999</v>
       </c>
-      <c r="J147" s="28">
+      <c r="J147" s="11">
         <v>31.184965038594211</v>
       </c>
-      <c r="K147" s="28">
+      <c r="K147" s="11">
         <v>30.76566</v>
       </c>
-      <c r="L147" s="28">
+      <c r="L147" s="11">
         <v>15.559290000000001</v>
       </c>
-      <c r="M147" s="28">
+      <c r="M147" s="11">
         <v>25.933310000000002</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="30">
+    <row r="148" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="13">
         <v>1</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D148" s="48">
+      <c r="D148" s="31">
         <v>2011</v>
       </c>
-      <c r="E148" s="34">
+      <c r="E148" s="17">
         <v>256.95587999999998</v>
       </c>
-      <c r="F148" s="34">
+      <c r="F148" s="17">
         <v>100.00000000000003</v>
       </c>
-      <c r="G148" s="34">
+      <c r="G148" s="17">
         <v>171.81331</v>
       </c>
-      <c r="H148" s="43">
+      <c r="H148" s="26">
         <v>66.864906924877545</v>
       </c>
-      <c r="I148" s="34">
+      <c r="I148" s="17">
         <v>85.142570000000006</v>
       </c>
-      <c r="J148" s="34">
+      <c r="J148" s="17">
         <v>33.135093075122477</v>
       </c>
-      <c r="K148" s="34">
+      <c r="K148" s="17">
         <v>87.023070000000004</v>
       </c>
-      <c r="L148" s="34">
+      <c r="L148" s="17">
         <v>76.723839999999996</v>
       </c>
-      <c r="M148" s="34">
+      <c r="M148" s="17">
         <v>93.208960000000005</v>
       </c>
     </row>
     <row r="149" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="36">
+      <c r="B149" s="19">
         <v>241</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D149" s="44">
+      <c r="D149" s="27">
         <v>2011</v>
       </c>
-      <c r="E149" s="28">
+      <c r="E149" s="11">
         <v>249.22248000000002</v>
       </c>
-      <c r="F149" s="28">
+      <c r="F149" s="11">
         <v>100</v>
       </c>
-      <c r="G149" s="28">
+      <c r="G149" s="11">
         <v>170.68214</v>
       </c>
-      <c r="H149" s="45">
+      <c r="H149" s="28">
         <v>68.485852480081249</v>
       </c>
-      <c r="I149" s="28">
+      <c r="I149" s="11">
         <v>78.54034</v>
       </c>
-      <c r="J149" s="28">
+      <c r="J149" s="11">
         <v>31.514147519918744</v>
       </c>
-      <c r="K149" s="28">
+      <c r="K149" s="11">
         <v>98.646950000000004</v>
       </c>
-      <c r="L149" s="28">
+      <c r="L149" s="11">
         <v>55.354860000000002</v>
       </c>
-      <c r="M149" s="28">
+      <c r="M149" s="11">
         <v>95.220669999999998</v>
       </c>
     </row>
     <row r="150" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="36">
+      <c r="B150" s="19">
         <v>241001</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D150" s="44">
+      <c r="D150" s="27">
         <v>2011</v>
       </c>
-      <c r="E150" s="28">
+      <c r="E150" s="11">
         <v>144.04601</v>
       </c>
-      <c r="F150" s="28">
+      <c r="F150" s="11">
         <v>100.00000694222631</v>
       </c>
-      <c r="G150" s="28">
+      <c r="G150" s="11">
         <v>103.77213999999999</v>
       </c>
-      <c r="H150" s="45">
+      <c r="H150" s="28">
         <v>72.040968021259317</v>
       </c>
-      <c r="I150" s="28">
+      <c r="I150" s="11">
         <v>40.273879999999998</v>
       </c>
-      <c r="J150" s="28">
+      <c r="J150" s="11">
         <v>27.959038920966989</v>
       </c>
-      <c r="K150" s="28">
+      <c r="K150" s="11">
         <v>64.047740000000005</v>
       </c>
-      <c r="L150" s="28">
+      <c r="L150" s="11">
         <v>28.540130000000001</v>
       </c>
-      <c r="M150" s="28">
+      <c r="M150" s="11">
         <v>51.458150000000003</v>
       </c>
     </row>
     <row r="151" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="36" t="s">
+      <c r="B151" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="44">
+      <c r="D151" s="27">
         <v>2011</v>
       </c>
-      <c r="E151" s="28">
+      <c r="E151" s="11">
         <v>105.17646999999999</v>
       </c>
-      <c r="F151" s="28">
+      <c r="F151" s="11">
         <v>100</v>
       </c>
-      <c r="G151" s="28">
+      <c r="G151" s="11">
         <v>66.91001</v>
       </c>
-      <c r="H151" s="45">
+      <c r="H151" s="28">
         <v>63.616900243942396</v>
       </c>
-      <c r="I151" s="28">
+      <c r="I151" s="11">
         <v>38.266460000000002</v>
       </c>
-      <c r="J151" s="28">
+      <c r="J151" s="11">
         <v>36.383099756057611</v>
       </c>
-      <c r="K151" s="28">
+      <c r="K151" s="11">
         <v>34.599220000000003</v>
       </c>
-      <c r="L151" s="28">
+      <c r="L151" s="11">
         <v>26.814730000000001</v>
       </c>
-      <c r="M151" s="28">
+      <c r="M151" s="11">
         <v>43.762519999999995</v>
       </c>
     </row>
     <row r="152" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="36"/>
-      <c r="C152" s="25" t="s">
+      <c r="B152" s="19"/>
+      <c r="C152" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D152" s="44">
+      <c r="D152" s="27">
         <v>2011</v>
       </c>
-      <c r="E152" s="28">
+      <c r="E152" s="11">
         <v>72.49503</v>
       </c>
-      <c r="F152" s="28">
+      <c r="F152" s="11">
         <v>99.999986205950961</v>
       </c>
-      <c r="G152" s="28">
+      <c r="G152" s="11">
         <v>50.325300000000006</v>
       </c>
-      <c r="H152" s="45">
+      <c r="H152" s="28">
         <v>69.418965686337401</v>
       </c>
-      <c r="I152" s="28">
+      <c r="I152" s="11">
         <v>22.169720000000002</v>
       </c>
-      <c r="J152" s="28">
+      <c r="J152" s="11">
         <v>30.581020519613556</v>
       </c>
-      <c r="K152" s="28">
+      <c r="K152" s="11">
         <v>26.23949</v>
       </c>
-      <c r="L152" s="28">
+      <c r="L152" s="11">
         <v>18.40146</v>
       </c>
-      <c r="M152" s="28">
+      <c r="M152" s="11">
         <v>27.854080000000003</v>
       </c>
     </row>
     <row r="153" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="36"/>
-      <c r="C153" s="25" t="s">
+      <c r="B153" s="19"/>
+      <c r="C153" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D153" s="44">
+      <c r="D153" s="27">
         <v>2011</v>
       </c>
-      <c r="E153" s="28">
+      <c r="E153" s="11">
         <v>74.668050000000008</v>
       </c>
-      <c r="F153" s="28">
+      <c r="F153" s="11">
         <v>100.00001339260899</v>
       </c>
-      <c r="G153" s="28">
+      <c r="G153" s="11">
         <v>50.981439999999999</v>
       </c>
-      <c r="H153" s="45">
+      <c r="H153" s="28">
         <v>68.277449324041527</v>
       </c>
-      <c r="I153" s="28">
+      <c r="I153" s="11">
         <v>23.686619999999998</v>
       </c>
-      <c r="J153" s="28">
+      <c r="J153" s="11">
         <v>31.722564068567472</v>
       </c>
-      <c r="K153" s="28">
+      <c r="K153" s="11">
         <v>25.032209999999999</v>
       </c>
-      <c r="L153" s="28">
+      <c r="L153" s="11">
         <v>20.995459999999998</v>
       </c>
-      <c r="M153" s="28">
+      <c r="M153" s="11">
         <v>28.64039</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="30">
+    <row r="154" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="13">
         <v>2</v>
       </c>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D154" s="48">
+      <c r="D154" s="31">
         <v>2011</v>
       </c>
-      <c r="E154" s="34">
+      <c r="E154" s="17">
         <v>396.38556</v>
       </c>
-      <c r="F154" s="34">
+      <c r="F154" s="17">
         <v>100</v>
       </c>
-      <c r="G154" s="34">
+      <c r="G154" s="17">
         <v>271.98889000000003</v>
       </c>
-      <c r="H154" s="43">
+      <c r="H154" s="26">
         <v>68.617254876792188</v>
       </c>
-      <c r="I154" s="34">
+      <c r="I154" s="17">
         <v>124.39667</v>
       </c>
-      <c r="J154" s="34">
+      <c r="J154" s="17">
         <v>31.382745123207815</v>
       </c>
-      <c r="K154" s="34">
+      <c r="K154" s="17">
         <v>149.91864999999999</v>
       </c>
-      <c r="L154" s="34">
+      <c r="L154" s="17">
         <v>94.751779999999997</v>
       </c>
-      <c r="M154" s="34">
+      <c r="M154" s="17">
         <v>151.71514000000002</v>
       </c>
     </row>
     <row r="155" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="36"/>
-      <c r="C155" s="25" t="s">
+      <c r="B155" s="19"/>
+      <c r="C155" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D155" s="44">
+      <c r="D155" s="27">
         <v>2011</v>
       </c>
-      <c r="E155" s="28">
+      <c r="E155" s="11">
         <v>97.353080000000006</v>
       </c>
-      <c r="F155" s="28">
+      <c r="F155" s="11">
         <v>100</v>
       </c>
-      <c r="G155" s="28">
+      <c r="G155" s="11">
         <v>62.777629999999995</v>
       </c>
-      <c r="H155" s="45">
+      <c r="H155" s="28">
         <v>64.484482668653115</v>
       </c>
-      <c r="I155" s="28">
+      <c r="I155" s="11">
         <v>34.575449999999996</v>
       </c>
-      <c r="J155" s="28">
+      <c r="J155" s="11">
         <v>35.515517331346878</v>
       </c>
-      <c r="K155" s="28">
+      <c r="K155" s="11">
         <v>34.83887</v>
       </c>
-      <c r="L155" s="28">
+      <c r="L155" s="11">
         <v>18.904599999999999</v>
       </c>
-      <c r="M155" s="28">
+      <c r="M155" s="11">
         <v>43.609610000000004</v>
       </c>
     </row>
     <row r="156" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="36"/>
-      <c r="C156" s="25" t="s">
+      <c r="B156" s="19"/>
+      <c r="C156" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D156" s="44">
+      <c r="D156" s="27">
         <v>2011</v>
       </c>
-      <c r="E156" s="28">
+      <c r="E156" s="11">
         <v>97.532389999999992</v>
       </c>
-      <c r="F156" s="28">
+      <c r="F156" s="11">
         <v>100.00001025300418</v>
       </c>
-      <c r="G156" s="28">
+      <c r="G156" s="11">
         <v>62.218110000000003</v>
       </c>
-      <c r="H156" s="45">
+      <c r="H156" s="28">
         <v>63.79225403991434</v>
       </c>
-      <c r="I156" s="28">
+      <c r="I156" s="11">
         <v>35.31429</v>
       </c>
-      <c r="J156" s="28">
+      <c r="J156" s="11">
         <v>36.20775621308983</v>
       </c>
-      <c r="K156" s="28">
+      <c r="K156" s="11">
         <v>30.61693</v>
       </c>
-      <c r="L156" s="28">
+      <c r="L156" s="11">
         <v>28.02909</v>
       </c>
-      <c r="M156" s="28">
+      <c r="M156" s="11">
         <v>38.886379999999996</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="30">
+    <row r="157" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="13">
         <v>3</v>
       </c>
-      <c r="C157" s="31" t="s">
+      <c r="C157" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D157" s="48">
+      <c r="D157" s="31">
         <v>2011</v>
       </c>
-      <c r="E157" s="34">
+      <c r="E157" s="17">
         <v>194.88548</v>
       </c>
-      <c r="F157" s="34">
+      <c r="F157" s="17">
         <v>100</v>
       </c>
-      <c r="G157" s="34">
+      <c r="G157" s="17">
         <v>124.99574000000001</v>
       </c>
-      <c r="H157" s="43">
+      <c r="H157" s="26">
         <v>64.138046610758281</v>
       </c>
-      <c r="I157" s="34">
+      <c r="I157" s="17">
         <v>69.889740000000003</v>
       </c>
-      <c r="J157" s="34">
+      <c r="J157" s="17">
         <v>35.861953389241727</v>
       </c>
-      <c r="K157" s="34">
+      <c r="K157" s="17">
         <v>65.455799999999996</v>
       </c>
-      <c r="L157" s="34">
+      <c r="L157" s="17">
         <v>46.933690000000006</v>
       </c>
-      <c r="M157" s="34">
+      <c r="M157" s="17">
         <v>82.495990000000006</v>
       </c>
     </row>
     <row r="158" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="36"/>
-      <c r="C158" s="25" t="s">
+      <c r="B158" s="19"/>
+      <c r="C158" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="44">
+      <c r="D158" s="27">
         <v>2011</v>
       </c>
-      <c r="E158" s="28">
+      <c r="E158" s="11">
         <v>71.844909999999999</v>
       </c>
-      <c r="F158" s="28">
+      <c r="F158" s="11">
         <v>100</v>
       </c>
-      <c r="G158" s="28">
+      <c r="G158" s="11">
         <v>46.862870000000001</v>
       </c>
-      <c r="H158" s="45">
+      <c r="H158" s="28">
         <v>65.227821984883832</v>
       </c>
-      <c r="I158" s="28">
+      <c r="I158" s="11">
         <v>24.982040000000001</v>
       </c>
-      <c r="J158" s="28">
+      <c r="J158" s="11">
         <v>34.772178015116175</v>
       </c>
-      <c r="K158" s="28">
+      <c r="K158" s="11">
         <v>27.94275</v>
       </c>
-      <c r="L158" s="28">
+      <c r="L158" s="11">
         <v>13.68153</v>
       </c>
-      <c r="M158" s="28">
+      <c r="M158" s="11">
         <v>30.22063</v>
       </c>
     </row>
     <row r="159" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="36"/>
-      <c r="C159" s="25" t="s">
+      <c r="B159" s="19"/>
+      <c r="C159" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D159" s="44">
+      <c r="D159" s="27">
         <v>2011</v>
       </c>
-      <c r="E159" s="28">
+      <c r="E159" s="11">
         <v>111.41436</v>
       </c>
-      <c r="F159" s="28">
+      <c r="F159" s="11">
         <v>100</v>
       </c>
-      <c r="G159" s="28">
+      <c r="G159" s="11">
         <v>77.583860000000001</v>
       </c>
-      <c r="H159" s="45">
+      <c r="H159" s="28">
         <v>69.635422220259585</v>
       </c>
-      <c r="I159" s="28">
+      <c r="I159" s="11">
         <v>33.830500000000001</v>
       </c>
-      <c r="J159" s="28">
+      <c r="J159" s="11">
         <v>30.364577779740422</v>
       </c>
-      <c r="K159" s="28">
+      <c r="K159" s="11">
         <v>25.554040000000001</v>
       </c>
-      <c r="L159" s="28">
+      <c r="L159" s="11">
         <v>47.424910000000004</v>
       </c>
-      <c r="M159" s="28">
+      <c r="M159" s="11">
         <v>38.435410000000005</v>
       </c>
     </row>
     <row r="160" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="36"/>
-      <c r="C160" s="25" t="s">
+      <c r="B160" s="19"/>
+      <c r="C160" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D160" s="44">
+      <c r="D160" s="27">
         <v>2011</v>
       </c>
-      <c r="E160" s="28">
+      <c r="E160" s="11">
         <v>236.83645999999999</v>
       </c>
-      <c r="F160" s="28">
+      <c r="F160" s="11">
         <v>100</v>
       </c>
-      <c r="G160" s="28">
+      <c r="G160" s="11">
         <v>161.99847</v>
       </c>
-      <c r="H160" s="45">
+      <c r="H160" s="28">
         <v>68.400984375463139</v>
       </c>
-      <c r="I160" s="28">
+      <c r="I160" s="11">
         <v>74.837990000000005</v>
       </c>
-      <c r="J160" s="28">
+      <c r="J160" s="11">
         <v>31.599015624536868</v>
       </c>
-      <c r="K160" s="28">
+      <c r="K160" s="11">
         <v>73.840009999999992</v>
       </c>
-      <c r="L160" s="28">
+      <c r="L160" s="11">
         <v>78.74597</v>
       </c>
-      <c r="M160" s="28">
+      <c r="M160" s="11">
         <v>84.250489999999999</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="30">
+    <row r="161" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="13">
         <v>4</v>
       </c>
-      <c r="C161" s="31" t="s">
+      <c r="C161" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D161" s="48">
+      <c r="D161" s="31">
         <v>2011</v>
       </c>
-      <c r="E161" s="34">
+      <c r="E161" s="17">
         <v>420.09573</v>
       </c>
-      <c r="F161" s="34">
+      <c r="F161" s="17">
         <v>100</v>
       </c>
-      <c r="G161" s="34">
+      <c r="G161" s="17">
         <v>286.4452</v>
       </c>
-      <c r="H161" s="43">
+      <c r="H161" s="26">
         <v>68.185696626814092</v>
       </c>
-      <c r="I161" s="34">
+      <c r="I161" s="17">
         <v>133.65053</v>
       </c>
-      <c r="J161" s="34">
+      <c r="J161" s="17">
         <v>31.814303373185915</v>
       </c>
-      <c r="K161" s="34">
+      <c r="K161" s="17">
         <v>127.3368</v>
       </c>
-      <c r="L161" s="34">
+      <c r="L161" s="17">
         <v>139.85240999999999</v>
       </c>
-      <c r="M161" s="34">
+      <c r="M161" s="17">
         <v>152.90653</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="30">
+    <row r="162" spans="2:13" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="13">
         <v>0</v>
       </c>
-      <c r="C162" s="31" t="s">
+      <c r="C162" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D162" s="48">
+      <c r="D162" s="31">
         <v>2011</v>
       </c>
-      <c r="E162" s="34">
+      <c r="E162" s="17">
         <v>1268.3226499999998</v>
       </c>
-      <c r="F162" s="34">
+      <c r="F162" s="17">
         <v>100.00000000000001</v>
       </c>
-      <c r="G162" s="34">
+      <c r="G162" s="17">
         <v>855.24312999999995</v>
       </c>
-      <c r="H162" s="43">
+      <c r="H162" s="26">
         <v>67.431038151057237</v>
       </c>
-      <c r="I162" s="34">
+      <c r="I162" s="17">
         <v>413.07952</v>
       </c>
-      <c r="J162" s="34">
+      <c r="J162" s="17">
         <v>32.568961848942777</v>
       </c>
-      <c r="K162" s="34">
+      <c r="K162" s="17">
         <v>429.73432000000003</v>
       </c>
-      <c r="L162" s="34">
+      <c r="L162" s="17">
         <v>358.26170999999999</v>
       </c>
-      <c r="M162" s="34">
+      <c r="M162" s="17">
         <v>480.32660999999996</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C163" s="49"/>
+      <c r="C163" s="32"/>
     </row>
     <row r="164" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="50" t="s">
+      <c r="C164" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="50"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="50"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
-      <c r="I164" s="50"/>
-      <c r="J164" s="50"/>
-      <c r="K164" s="50"/>
-      <c r="L164" s="50"/>
-      <c r="M164" s="50"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="37"/>
+      <c r="L164" s="37"/>
+      <c r="M164" s="37"/>
     </row>
     <row r="165" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="51" t="s">
+      <c r="C165" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D165" s="51"/>
-      <c r="E165" s="51"/>
-      <c r="F165" s="51"/>
-      <c r="G165" s="51"/>
-      <c r="H165" s="51"/>
-      <c r="I165" s="51"/>
-      <c r="J165" s="51"/>
-      <c r="K165" s="51"/>
-      <c r="L165" s="51"/>
-      <c r="M165" s="51"/>
+      <c r="D165" s="38"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="38"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="38"/>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
     </row>
     <row r="166" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="52"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="52"/>
-      <c r="E166" s="52"/>
-      <c r="F166" s="52"/>
-      <c r="G166" s="52"/>
-      <c r="H166" s="52"/>
-      <c r="I166" s="52"/>
-      <c r="J166" s="52"/>
-      <c r="K166" s="52"/>
-      <c r="L166" s="52"/>
-      <c r="M166" s="52"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="33"/>
+      <c r="L166" s="33"/>
+      <c r="M166" s="33"/>
     </row>
     <row r="167" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="53" t="s">
+      <c r="C167" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D167" s="54"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="54"/>
-      <c r="H167" s="53"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="34"/>
+    </row>
+    <row r="168" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="34"/>
+    </row>
+    <row r="169" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" s="35"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="34"/>
+    </row>
+    <row r="170" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D170" s="35"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="34"/>
+    </row>
+    <row r="171" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" s="35"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="34"/>
+    </row>
+    <row r="172" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="35"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6740,6 +6819,9 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K9:M9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C172" r:id="rId1" xr:uid="{38E02535-B357-4F3B-8796-F4F0E2BCC591}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/excel/2021_1-3-2.xlsx
+++ b/assets/excel/2021_1-3-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C913348D-ABDF-441E-A8A8-22DA33A4AB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA977A-BB3D-4ED8-91DD-34831BBA74F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{D818978F-F71E-4D9C-8ED8-548A62D97831}"/>
   </bookViews>
@@ -538,6 +538,9 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -594,9 +597,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +916,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:M172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,61 +954,61 @@
       <c r="G4" s="1"/>
     </row>
     <row r="6" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="48" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="51" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="51" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="53"/>
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1020,9 +1020,9 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6">
         <v>1000</v>
       </c>
@@ -1041,11 +1041,11 @@
       <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="55">
         <v>1000</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -1702,13 +1702,13 @@
         <v>34.417408007946591</v>
       </c>
       <c r="K27" s="11">
-        <v>735.98018999999999</v>
+        <v>103.07277000000001</v>
       </c>
       <c r="L27" s="11">
-        <v>103.07277000000001</v>
+        <v>44.397529999999996</v>
       </c>
       <c r="M27" s="11">
-        <v>44.397529999999996</v>
+        <v>93.498339999999999</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,13 +1738,13 @@
         <v>32.416105097216942</v>
       </c>
       <c r="K28" s="11">
-        <v>479.79467999999997</v>
+        <v>42.428899999999999</v>
       </c>
       <c r="L28" s="11">
-        <v>42.428899999999999</v>
+        <v>19.416730000000001</v>
       </c>
       <c r="M28" s="11">
-        <v>19.416730000000001</v>
+        <v>42.408319999999996</v>
       </c>
     </row>
     <row r="29" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1776,13 +1776,13 @@
         <v>33.81303349818446</v>
       </c>
       <c r="K29" s="17">
-        <v>1215.7748700000002</v>
+        <v>145.50167000000002</v>
       </c>
       <c r="L29" s="17">
-        <v>145.50167000000002</v>
+        <v>63.814260000000004</v>
       </c>
       <c r="M29" s="17">
-        <v>63.814260000000004</v>
+        <v>135.90667000000002</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,13 +1814,13 @@
         <v>35.283233219214864</v>
       </c>
       <c r="K30" s="11">
-        <v>784.15094999999997</v>
+        <v>159.72075000000001</v>
       </c>
       <c r="L30" s="11">
-        <v>159.72075000000001</v>
+        <v>39.890329999999999</v>
       </c>
       <c r="M30" s="11">
-        <v>39.890329999999999</v>
+        <v>147.85239999999999</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,13 +1852,13 @@
         <v>34.7946217302161</v>
       </c>
       <c r="K31" s="11">
-        <v>325.80624</v>
+        <v>91.846050000000005</v>
       </c>
       <c r="L31" s="11">
-        <v>91.846050000000005</v>
+        <v>20.654400000000003</v>
       </c>
       <c r="M31" s="11">
-        <v>20.654400000000003</v>
+        <v>89.197130000000001</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,13 +1890,13 @@
         <v>35.959329308157812</v>
       </c>
       <c r="K32" s="11">
-        <v>458.34471000000002</v>
+        <v>67.87469999999999</v>
       </c>
       <c r="L32" s="11">
-        <v>67.87469999999999</v>
+        <v>19.23593</v>
       </c>
       <c r="M32" s="11">
-        <v>19.23593</v>
+        <v>58.655269999999994</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>30.808510692606621</v>
       </c>
       <c r="K33" s="11">
-        <v>375.69541999999996</v>
+        <v>43.481569999999998</v>
       </c>
       <c r="L33" s="11">
-        <v>43.481569999999998</v>
+        <v>22.718240000000002</v>
       </c>
       <c r="M33" s="11">
-        <v>22.718240000000002</v>
+        <v>43.496079999999999</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
         <v>35.679913719592072</v>
       </c>
       <c r="K34" s="11">
-        <v>395.22775000000001</v>
+        <v>38.967309999999998</v>
       </c>
       <c r="L34" s="11">
-        <v>38.967309999999998</v>
+        <v>14.056089999999999</v>
       </c>
       <c r="M34" s="11">
-        <v>14.056089999999999</v>
+        <v>35.339649999999999</v>
       </c>
     </row>
     <row r="35" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2000,13 +2000,13 @@
         <v>34.447691444102333</v>
       </c>
       <c r="K35" s="17">
-        <v>1555.0741200000002</v>
+        <v>242.16964000000002</v>
       </c>
       <c r="L35" s="17">
-        <v>242.16964000000002</v>
+        <v>76.664649999999995</v>
       </c>
       <c r="M35" s="17">
-        <v>76.664649999999995</v>
+        <v>226.68813</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,13 +2036,13 @@
         <v>36.793428097985114</v>
       </c>
       <c r="K36" s="11">
-        <v>752.57431000000008</v>
+        <v>65.021280000000004</v>
       </c>
       <c r="L36" s="11">
-        <v>65.021280000000004</v>
+        <v>19.552619999999997</v>
       </c>
       <c r="M36" s="11">
-        <v>19.552619999999997</v>
+        <v>77.539289999999994</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,13 +2072,13 @@
         <v>34.265912836032022</v>
       </c>
       <c r="K37" s="11">
-        <v>624.19130000000007</v>
+        <v>56.90699</v>
       </c>
       <c r="L37" s="11">
-        <v>56.90699</v>
+        <v>18.322279999999999</v>
       </c>
       <c r="M37" s="11">
-        <v>18.322279999999999</v>
+        <v>57.331009999999999</v>
       </c>
     </row>
     <row r="38" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2110,13 +2110,13 @@
         <v>35.656414391713454</v>
       </c>
       <c r="K38" s="17">
-        <v>1376.7656100000002</v>
+        <v>121.92827</v>
       </c>
       <c r="L38" s="17">
-        <v>121.92827</v>
+        <v>37.874900000000004</v>
       </c>
       <c r="M38" s="17">
-        <v>37.874900000000004</v>
+        <v>134.87029999999999</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2146,13 +2146,13 @@
         <v>33.187116706127931</v>
       </c>
       <c r="K39" s="11">
-        <v>608.61858999999993</v>
+        <v>54.569319999999998</v>
       </c>
       <c r="L39" s="11">
-        <v>54.569319999999998</v>
+        <v>15.27867</v>
       </c>
       <c r="M39" s="11">
-        <v>15.27867</v>
+        <v>44.010460000000002</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,13 +2182,13 @@
         <v>33.888031876867693</v>
       </c>
       <c r="K40" s="11">
-        <v>521.65695000000005</v>
+        <v>51.998440000000002</v>
       </c>
       <c r="L40" s="11">
-        <v>51.998440000000002</v>
+        <v>30.461880000000001</v>
       </c>
       <c r="M40" s="11">
-        <v>30.461880000000001</v>
+        <v>58.261160000000004</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,13 +2218,13 @@
         <v>29.733428010841216</v>
       </c>
       <c r="K41" s="11">
-        <v>819.52831999999989</v>
+        <v>134.04888</v>
       </c>
       <c r="L41" s="11">
-        <v>134.04888</v>
+        <v>58.97766</v>
       </c>
       <c r="M41" s="11">
-        <v>58.97766</v>
+        <v>93.08153999999999</v>
       </c>
     </row>
     <row r="42" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2256,13 +2256,13 @@
         <v>31.542003307970525</v>
       </c>
       <c r="K42" s="17">
-        <v>1949.8038600000002</v>
+        <v>240.61664000000002</v>
       </c>
       <c r="L42" s="17">
-        <v>240.61664000000002</v>
+        <v>104.71821000000001</v>
       </c>
       <c r="M42" s="17">
-        <v>104.71821000000001</v>
+        <v>195.35316</v>
       </c>
     </row>
     <row r="43" spans="2:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2294,13 +2294,13 @@
         <v>33.616925338134848</v>
       </c>
       <c r="K43" s="17">
-        <v>6097.4184500000001</v>
+        <v>750.21622000000002</v>
       </c>
       <c r="L43" s="17">
-        <v>750.21622000000002</v>
+        <v>283.07202000000001</v>
       </c>
       <c r="M43" s="17">
-        <v>283.07202000000001</v>
+        <v>692.81825000000003</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6703,34 +6703,34 @@
       <c r="C163" s="32"/>
     </row>
     <row r="164" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="37" t="s">
+      <c r="C164" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="37"/>
-      <c r="L164" s="37"/>
-      <c r="M164" s="37"/>
+      <c r="D164" s="38"/>
+      <c r="E164" s="38"/>
+      <c r="F164" s="38"/>
+      <c r="G164" s="38"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="38"/>
+      <c r="J164" s="38"/>
+      <c r="K164" s="38"/>
+      <c r="L164" s="38"/>
+      <c r="M164" s="38"/>
     </row>
     <row r="165" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="38" t="s">
+      <c r="C165" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D165" s="38"/>
-      <c r="E165" s="38"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="38"/>
-      <c r="H165" s="38"/>
-      <c r="I165" s="38"/>
-      <c r="J165" s="38"/>
-      <c r="K165" s="38"/>
-      <c r="L165" s="38"/>
-      <c r="M165" s="38"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="39"/>
+      <c r="H165" s="39"/>
+      <c r="I165" s="39"/>
+      <c r="J165" s="39"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="39"/>
+      <c r="M165" s="39"/>
     </row>
     <row r="166" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="33"/>
@@ -6795,7 +6795,7 @@
       <c r="H171" s="34"/>
     </row>
     <row r="172" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="56" t="s">
+      <c r="C172" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D172" s="35"/>

--- a/assets/excel/2021_1-3-2.xlsx
+++ b/assets/excel/2021_1-3-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA977A-BB3D-4ED8-91DD-34831BBA74F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F5810-52EA-4561-9776-777285404235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{D818978F-F71E-4D9C-8ED8-548A62D97831}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="41">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
+  </si>
+  <si>
+    <t>3) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes</t>
   </si>
 </sst>
 </file>
@@ -914,10 +917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F34A677-107E-4B51-8415-9BFC70ED2BBD}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B1:M172"/>
+  <dimension ref="B1:M173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6732,32 +6735,39 @@
       <c r="L165" s="39"/>
       <c r="M165" s="39"/>
     </row>
-    <row r="166" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="33"/>
-      <c r="J166" s="33"/>
-      <c r="K166" s="33"/>
-      <c r="L166" s="33"/>
-      <c r="M166" s="33"/>
+    <row r="166" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="38"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="38"/>
+      <c r="J166" s="38"/>
+      <c r="K166" s="38"/>
+      <c r="L166" s="38"/>
+      <c r="M166" s="38"/>
     </row>
     <row r="167" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="34" t="s">
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="33"/>
+      <c r="L167" s="33"/>
+      <c r="M167" s="33"/>
+    </row>
+    <row r="168" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D167" s="35"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="34"/>
-    </row>
-    <row r="168" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C168" s="34"/>
       <c r="D168" s="35"/>
       <c r="E168" s="36"/>
       <c r="F168" s="35"/>
@@ -6765,9 +6775,7 @@
       <c r="H168" s="34"/>
     </row>
     <row r="169" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="34" t="s">
-        <v>36</v>
-      </c>
+      <c r="C169" s="34"/>
       <c r="D169" s="35"/>
       <c r="E169" s="36"/>
       <c r="F169" s="35"/>
@@ -6776,7 +6784,7 @@
     </row>
     <row r="170" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="36"/>
@@ -6786,7 +6794,7 @@
     </row>
     <row r="171" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="36"/>
@@ -6795,8 +6803,8 @@
       <c r="H171" s="34"/>
     </row>
     <row r="172" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="37" t="s">
-        <v>39</v>
+      <c r="C172" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="36"/>
@@ -6804,8 +6812,19 @@
       <c r="G172" s="35"/>
       <c r="H172" s="34"/>
     </row>
+    <row r="173" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" s="35"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C166:M166"/>
     <mergeCell ref="C164:M164"/>
     <mergeCell ref="C165:M165"/>
     <mergeCell ref="B6:B9"/>
@@ -6820,7 +6839,7 @@
     <mergeCell ref="K9:M9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C172" r:id="rId1" xr:uid="{38E02535-B357-4F3B-8796-F4F0E2BCC591}"/>
+    <hyperlink ref="C173" r:id="rId1" xr:uid="{38E02535-B357-4F3B-8796-F4F0E2BCC591}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
